--- a/Datasets/UNHAS/UnhasImagesHealthyCropped.xlsx
+++ b/Datasets/UNHAS/UnhasImagesHealthyCropped.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>folder</t>
   </si>
@@ -35,607 +35,547 @@
     <t>filesize(KB)</t>
   </si>
   <si>
-    <t>test_img_crop</t>
-  </si>
-  <si>
-    <t>3 - dr. Ghulam Ahmad Mubaraq Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_6 - dr. Ade Septriana.jpeg</t>
-  </si>
-  <si>
-    <t>1 - dr. Dian Puteri Pratami Right.jpg</t>
-  </si>
-  <si>
-    <t>3-dr.Annisa Ikhsania Ariffin Right.JPG</t>
-  </si>
-  <si>
-    <t>L_6 - dr. Fachria Jumiah .jpeg</t>
-  </si>
-  <si>
-    <t>L_11 - dr. Yosylina Pramudya W.jpeg</t>
-  </si>
-  <si>
-    <t>R_6 - dr. Ardy Gisnawan.jpg</t>
-  </si>
-  <si>
-    <t>R_4 - dr. Nabita Aulia.jpeg</t>
-  </si>
-  <si>
-    <t>R_7 - dr. Linda Minar Herawati.jpeg</t>
-  </si>
-  <si>
-    <t>L_7 - dr. Arandz Ruttu.jpeg</t>
-  </si>
-  <si>
-    <t>L_8 - dr. Budhi Karoma.jpg</t>
-  </si>
-  <si>
-    <t>R_2 - dr. Susan Waterina Salle.jpeg</t>
-  </si>
-  <si>
-    <t>9 - dr. Rachmawati Samad Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_9 - dr. Muhammad Affan Azhari.jpeg</t>
-  </si>
-  <si>
-    <t>R_1 - dr. Ika Puspita.jpeg</t>
-  </si>
-  <si>
-    <t>L_5 - dr. Marco Angelo Liwan.jpg</t>
-  </si>
-  <si>
-    <t>L_6 - dr. Rasmiati Rahim.jpeg</t>
-  </si>
-  <si>
-    <t>4 - dr. Desti Priani Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_9 - dr. Margaret Indirawati.jpg</t>
-  </si>
-  <si>
-    <t>5 - dr. Marco Angelo Liwan Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_1 - dr. Lia Fristka.jpg</t>
-  </si>
-  <si>
-    <t>11 - dr. Delvi Indera Mayasari Right.jpeg</t>
-  </si>
-  <si>
-    <t>3 - dr. Sarah Eisya Putri Right.jpeg</t>
-  </si>
-  <si>
-    <t>3 - dr.Sartika Stiefany Putri Right.jpeg</t>
-  </si>
-  <si>
-    <t>L_9 - dr. Deby Trisnawaty Mansyur.jpg</t>
-  </si>
-  <si>
-    <t>L_1 - dr. Cindy Hartono.jpg</t>
-  </si>
-  <si>
-    <t>L_3 - dr. Ghulam Ahmad Mubaraq.jpeg</t>
-  </si>
-  <si>
-    <t>R_4 - dr. Herin Arini Natalia.jpeg</t>
-  </si>
-  <si>
-    <t>R_9 - dr. Deby Trisnawaty Mansyur.jpg</t>
-  </si>
-  <si>
-    <t>L_1 - dr. Ika Puspita.jpeg</t>
-  </si>
-  <si>
-    <t>1 - dr. Fahrian Tirkal Right_.jpg</t>
-  </si>
-  <si>
-    <t>L_1 - dr. Fahrian Tirkal_.jpg</t>
-  </si>
-  <si>
-    <t>L_5 - dr. Melia Budi Astuti.jpg</t>
-  </si>
-  <si>
-    <t>L_1 - dr. Dian P Sumarwoto.jpeg</t>
-  </si>
-  <si>
-    <t>7 - dr. Gerhanawati Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_7 - dr. Widodo Prima Utama.jpg</t>
-  </si>
-  <si>
-    <t>R_2 - dr. Fadhilah Putri Wulandari.jpg</t>
-  </si>
-  <si>
-    <t>L_6 - dr. Ade Septriana.jpeg</t>
-  </si>
-  <si>
-    <t>L_4 - dr. Rahmat Priyangga Rakatama.jpeg</t>
-  </si>
-  <si>
-    <t>2 - dr. Muh Nur Agung Mappatanga Right.JPG</t>
-  </si>
-  <si>
-    <t>L_4 - dr. Nabita Aulia.jpeg</t>
-  </si>
-  <si>
-    <t>6 - Ade Septriana Right.jpeg</t>
-  </si>
-  <si>
-    <t>8 - dr. Irma N Iskandar Right.jpg</t>
-  </si>
-  <si>
-    <t>R_3 - dr. Ahdini Zulfiana Abidin.jpg</t>
-  </si>
-  <si>
-    <t>R_5 - dr. Hanna Aulia Namira.jpeg</t>
-  </si>
-  <si>
-    <t>7 - dr. Linda Minar Herawati Right.jpeg</t>
-  </si>
-  <si>
-    <t>L_1 - dr. Dian Puteri Pratami.jpeg</t>
-  </si>
-  <si>
-    <t>R_1 - dr. M. Zulkarnain.jpeg</t>
-  </si>
-  <si>
-    <t>R_2 - dr. Indah Tri Handayani.jpg</t>
-  </si>
-  <si>
-    <t>R_1 - dr. Nurul Qalbi Ramadhani.jpeg</t>
-  </si>
-  <si>
-    <t>11 - dr. Zulfikri Khalil Novriansyah Right.jpg</t>
-  </si>
-  <si>
-    <t>R_5 - dr. Vita Rahayu.jpg</t>
-  </si>
-  <si>
-    <t>R_3 - dr. Sarah Eisya Putri.jpeg</t>
-  </si>
-  <si>
-    <t>R_9 - dr. Rachmawati Samad.jpeg</t>
-  </si>
-  <si>
-    <t>L_1 - dr. Lia Fristka.jpg</t>
-  </si>
-  <si>
-    <t>L_1 - dr. Geraldi Ayub Fujiwan.jpeg</t>
-  </si>
-  <si>
-    <t>L_12 - dr. Muznida Ziad Ahmad.jpeg</t>
-  </si>
-  <si>
-    <t>7- dr. Nur Aulia Right - dian puteri.JPG</t>
-  </si>
-  <si>
-    <t>L_9 - dr. Fitri Annur Chikma.jpeg</t>
-  </si>
-  <si>
-    <t>R_8 - dr. Budhi Karoma.jpg</t>
-  </si>
-  <si>
-    <t>L_6 - dr. La Ode Hamzah.jpg</t>
-  </si>
-  <si>
-    <t>10 - dr. Hadijah Right.jpg</t>
-  </si>
-  <si>
-    <t>2 - dr. Indah Tri Handayani Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_4 - dr. Desti Priani.jpeg</t>
-  </si>
-  <si>
-    <t>L_11 - dr. Delvi Indera Mayasari.jpg</t>
-  </si>
-  <si>
-    <t>L_9 - dr Sri Handayani.jpg</t>
-  </si>
-  <si>
-    <t>L_5 - dr. Vita Rahayu.jpg</t>
-  </si>
-  <si>
-    <t>L_9 - dr. Indra Permatasari Azman.jpg</t>
-  </si>
-  <si>
-    <t>9 - dr. Indra Permatasari Azman Right.jpg</t>
-  </si>
-  <si>
-    <t>L_2 - dr. Fadhilah Putri Wulandari.jpg</t>
-  </si>
-  <si>
-    <t>3 - dr. Ahdini Zulfiana Abidin Right.jpg</t>
-  </si>
-  <si>
-    <t>R_3 - dr. Annisa Ikhsania Ariffin.jpeg</t>
-  </si>
-  <si>
-    <t>9 - dr. Muhammad Affan Alfiansyah Right.jpeg</t>
-  </si>
-  <si>
-    <t>5 - dr. Hanna Aulia Namira Right.jpeg</t>
-  </si>
-  <si>
-    <t>L_6 - dr. Hikban Fiqhi K.jpg</t>
-  </si>
-  <si>
-    <t>L_3 - dr. Ahdini Zulfiana Abidin.jpg</t>
-  </si>
-  <si>
-    <t>R_12 - dr. Muznida Ziad Ahmad.jpeg</t>
-  </si>
-  <si>
-    <t>1 - dr. Lia Fristka Right.jpg</t>
-  </si>
-  <si>
-    <t>L_4 - dr Nurul Rezqi Amaliah.jpg</t>
-  </si>
-  <si>
-    <t>L_7 - dr. Linda Minar Herawati.jpeg</t>
-  </si>
-  <si>
-    <t>R_11 - dr. Yosylina Pramudya W.jpeg</t>
-  </si>
-  <si>
-    <t>R_1 - dr. Fahrian Tirkal_.jpg</t>
-  </si>
-  <si>
-    <t>2 - dr. Humairah Bachmid Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_7 - dr. Arandz Ruttu.jpeg</t>
-  </si>
-  <si>
-    <t>4 - dr Nurul Rezqi Amaliah Right.jpg</t>
-  </si>
-  <si>
-    <t>L_3 - dr. Sarah Eisya Putri.jpeg</t>
-  </si>
-  <si>
-    <t>9 - dr. Sultan Hasanuddin Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_8 - dr. Irma Fita Sampe.jpg</t>
-  </si>
-  <si>
-    <t>R_1 - dr. Cindy Hartono.jpg</t>
-  </si>
-  <si>
-    <t>R_5 - dr. Melia Budi Astuti.jpg</t>
-  </si>
-  <si>
-    <t>R_4 - dr Nurul Rezqi Amaliah.jpg</t>
-  </si>
-  <si>
-    <t>1 - dr. M. Zulkarnain Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_9 - dr. Indra Permatasari Azman.jpg</t>
-  </si>
-  <si>
-    <t>R_4 - dr. Rahmat Priyangga Rakatama.jpeg</t>
-  </si>
-  <si>
-    <t>3 - dr. Aswira Aslam Right.jpeg</t>
-  </si>
-  <si>
-    <t>1 - dr. Lia Fristka Right.jpeg</t>
-  </si>
-  <si>
-    <t>6 - dr. Fachria Jumia Right.jpeg</t>
-  </si>
-  <si>
-    <t>L_8 - dr. Dewi Nugrahwati Putri.jpeg</t>
-  </si>
-  <si>
-    <t>2 - dr. Susan Waterina Salle Right.jpeg</t>
-  </si>
-  <si>
-    <t>L_9 - dr. Sultan Hasanuddin.jpeg</t>
-  </si>
-  <si>
-    <t>R_6 - dr Viviyanti.jpg</t>
-  </si>
-  <si>
-    <t>R_1 - dr. Intan Kumalasari.jpeg</t>
-  </si>
-  <si>
-    <t>R_7 - dr. M. Anugrah Fadhil.jpeg</t>
-  </si>
-  <si>
-    <t>L_7 - dr. Irnawanti Lestari.jpg</t>
-  </si>
-  <si>
-    <t>L_8 - dr. Irma Noviana Iskandar.jpg</t>
-  </si>
-  <si>
-    <t>8 - dr. Irma Fita Sampe Right.jpg</t>
-  </si>
-  <si>
-    <t>L_7 - dr. Meiliana Lay.jpeg</t>
-  </si>
-  <si>
-    <t>R_3 - dr. Sartika Stiefany Putri.jpg</t>
-  </si>
-  <si>
-    <t>8 - dr. Fadhlullah Latama Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_1 - Nurul Muthia Alviani.jpeg</t>
-  </si>
-  <si>
-    <t>L_7 - dr. Widodo Prima Utama.jpg</t>
-  </si>
-  <si>
-    <t>L_9 - dr. Margaret Indirawati.jpg</t>
-  </si>
-  <si>
-    <t>6-dr. Stephanie Tanjung Right.JPG</t>
-  </si>
-  <si>
-    <t>1 - Intan Kumalasari Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_11 - dr. Zulfikri Khalil Novriansyah.jpeg</t>
-  </si>
-  <si>
-    <t>R_1 - dr. Dian P Sumarwoto.jpeg</t>
-  </si>
-  <si>
-    <t>4 - dr. Rachmat Priyangga Rakatama Right.jpeg</t>
-  </si>
-  <si>
-    <t>1 - dr. Ika Puspita Right.jpeg</t>
-  </si>
-  <si>
-    <t>L_2 - dr. Khairun Nisa.jpeg</t>
-  </si>
-  <si>
-    <t>R_6 - dr. La Ode Hamzah.jpg</t>
-  </si>
-  <si>
-    <t>L_2 - dr. Humairah Bachmid.jpeg</t>
-  </si>
-  <si>
-    <t>R_5 - dr. Marco Angelo Liwan.jpg</t>
-  </si>
-  <si>
-    <t>6 - dr. Ardy Gisnawan Right.jpeg</t>
-  </si>
-  <si>
-    <t>6 - dr Viviyanti Right.jpg</t>
-  </si>
-  <si>
-    <t>R_2 - dr. Khairun Nisa.jpeg</t>
-  </si>
-  <si>
-    <t>2 - dr. Fadhilah Putri Wulandari Right.jpeg</t>
-  </si>
-  <si>
-    <t>6 - dr. La Ode Hamzah Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_7 - dr. Gerhanawati.jpeg</t>
-  </si>
-  <si>
-    <t>R_4 - dr. Liem Meysie Kristi H.jpeg</t>
-  </si>
-  <si>
-    <t>L_1 - dr. Intan Kumalasari.jpeg</t>
-  </si>
-  <si>
-    <t>R_8 - dr. Irma Noviana Iskandar.jpg</t>
-  </si>
-  <si>
-    <t>9 - dr. Debby Trisnawaty M Right.jpeg</t>
-  </si>
-  <si>
-    <t>9 - dr Sri Handayani Right.jpg</t>
-  </si>
-  <si>
-    <t>L_9 - dr. Rachmawati Samad.jpeg</t>
-  </si>
-  <si>
-    <t>R_1 - dr. Dian Puteri Pratami.jpeg</t>
-  </si>
-  <si>
-    <t>5 -  dr. Mentari Nurul M Right.jpeg</t>
-  </si>
-  <si>
-    <t>L_4 - dr. Desti Priani.jpeg</t>
-  </si>
-  <si>
-    <t>R_7 - dr. Meiliana Lay.jpeg</t>
-  </si>
-  <si>
-    <t>R_2 - dr. Muh Nur Agung Mappatanga.jpg</t>
-  </si>
-  <si>
-    <t>L_7 - dr. Gerhanawati.jpeg</t>
-  </si>
-  <si>
-    <t>R_6 - dr. Rasmiati Rahim.jpeg</t>
-  </si>
-  <si>
-    <t>12 - dr. Muznida Z. Ahmad Right.jpeg</t>
-  </si>
-  <si>
-    <t>L_4 - dr. Liem Meysie Kristi H.jpeg</t>
-  </si>
-  <si>
-    <t>R_9 - dr. Sultan Hasanuddin.jpeg</t>
-  </si>
-  <si>
-    <t>5 - dr.  Mentari Nurul M Right.jpg</t>
-  </si>
-  <si>
-    <t>8- dr. Budhi Karoma Right.JPG</t>
-  </si>
-  <si>
-    <t>R_2 - dr. Humairah Bachmid.jpeg</t>
-  </si>
-  <si>
-    <t>L_7 - dr. M. Anugrah Fadhil.jpeg</t>
-  </si>
-  <si>
-    <t>L_2 - dr. Indah Tri Handayani.jpg</t>
-  </si>
-  <si>
-    <t>L_6 - dr. Ardy Gisnawan.jpg</t>
-  </si>
-  <si>
-    <t>7 - dr. M. Anugrah Fadhil Right.jpeg</t>
-  </si>
-  <si>
-    <t>L_2 - dr. Diah Gemala Ibrahim.jpeg</t>
-  </si>
-  <si>
-    <t>L_4 - dr. Herin Arini Natalia.jpeg</t>
-  </si>
-  <si>
-    <t>L_1 - dr. M. Zulkarnain.jpeg</t>
-  </si>
-  <si>
-    <t>L_2 - dr. Muh Nur Agung Mappatanga.jpg</t>
-  </si>
-  <si>
-    <t>L_1 - Nurul Muthia Alviani.jpeg</t>
-  </si>
-  <si>
-    <t>4 - dr. Liem Meysie Kristi H Right.jpeg</t>
-  </si>
-  <si>
-    <t>L_3 - dr Fadilah Rezki Said.jpg</t>
-  </si>
-  <si>
-    <t>7 - dr. Irnawanti Lestari Right.jpeg</t>
-  </si>
-  <si>
-    <t>L_2 - dr. Susan Waterina Salle.jpeg</t>
-  </si>
-  <si>
-    <t>5 - dr. Melia Budi Astuti Right.jpg</t>
-  </si>
-  <si>
-    <t>1 - Nurul Muthia Alviani Right.jpeg</t>
-  </si>
-  <si>
-    <t>6 - dr. Hikban Fiqhi Right.jpeg</t>
-  </si>
-  <si>
-    <t>1 - dr. Cindy Hartono Right.jpg</t>
-  </si>
-  <si>
-    <t>6 - dr. Rasmiati Rahim Right.jpeg</t>
-  </si>
-  <si>
-    <t>L_9 - dr. Muhammad Affan Azhari.jpeg</t>
-  </si>
-  <si>
-    <t>2 - dr. Andi Ayu Lestari Right.JPG</t>
-  </si>
-  <si>
-    <t>R_6 - dr. Fachria Jumiah .jpeg</t>
-  </si>
-  <si>
-    <t>R_11 - dr. Delvi Indera Mayasari.jpg</t>
-  </si>
-  <si>
-    <t>7 - dr. Arandz Ruttu Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_5 - dr. Mentari Nurul Mutmainah.jpg</t>
-  </si>
-  <si>
-    <t>L_1 - dr. Nurul Qalbi Ramadhani.jpeg</t>
-  </si>
-  <si>
-    <t>L_3 - dr. Sartika Stiefany Putri.jpg</t>
-  </si>
-  <si>
-    <t>L_3 - dr. Annisa Ikhsania Ariffin.jpeg</t>
-  </si>
-  <si>
-    <t>L_5 - dr. Mentari Nurul Mutmainah.jpg</t>
-  </si>
-  <si>
-    <t>7 - dr. Widodo Prima Utama right.jpeg</t>
-  </si>
-  <si>
-    <t>3 - dr Fadilah Rezki Said  Right.jpg</t>
-  </si>
-  <si>
-    <t>L_8 - dr. Irma Fita Sampe.jpg</t>
-  </si>
-  <si>
-    <t>R_7 - dr. Irnawanti Lestari.jpg</t>
-  </si>
-  <si>
-    <t>7 - dr. Meiliana Lay right.jpeg</t>
-  </si>
-  <si>
-    <t>L_11 - dr. Zulfikri Khalil Novriansyah.jpeg</t>
-  </si>
-  <si>
-    <t>R_9 - dr Sri Handayani.jpg</t>
-  </si>
-  <si>
-    <t>L_6 - dr Viviyanti.jpg</t>
-  </si>
-  <si>
-    <t>L_5 - dr. Hanna Aulia Namira.jpeg</t>
-  </si>
-  <si>
-    <t>2 - dr. Khairun Nisa Right.jpeg</t>
-  </si>
-  <si>
-    <t>2 - dr. Diah Gemala Ibrahim Right.jpeg</t>
-  </si>
-  <si>
-    <t>8 - dr. Dewi Nugrahwati Putri Right.jpeg</t>
-  </si>
-  <si>
-    <t>9 - dr. Fitri Annur Chikma Right.jpeg</t>
-  </si>
-  <si>
-    <t>1 - dr. Geraldi Ayub Fujiwan Right.jpg</t>
-  </si>
-  <si>
-    <t>1 - dr.Dian Perwitasari Sumarwoto Right.JPG</t>
-  </si>
-  <si>
-    <t>R_2 - dr. Diah Gemala Ibrahim.jpeg</t>
-  </si>
-  <si>
-    <t>4 - dr. Herin Arini Natalia Right.jpeg</t>
-  </si>
-  <si>
-    <t>R_1 - dr. Geraldi Ayub Fujiwan.jpeg</t>
-  </si>
-  <si>
-    <t>1 - dr. Nurul Qalbi Ramadhani Right.jpeg</t>
-  </si>
-  <si>
-    <t>11 - dr. Yosylina Pramudya Right.jpg</t>
-  </si>
-  <si>
-    <t>R_9 - dr. Fitri Annur Chikma.jpeg</t>
-  </si>
-  <si>
-    <t>R_3 - dr Fadilah Rezki Said.jpg</t>
-  </si>
-  <si>
-    <t>R_3 - dr. Ghulam Ahmad Mubaraq.jpeg</t>
-  </si>
-  <si>
-    <t>R_8 - dr. Dewi Nugrahwati Putri.jpeg</t>
-  </si>
-  <si>
-    <t>R_6 - dr. Hikban Fiqhi K.jpg</t>
+    <t>UnhasImagesCataractsCropped</t>
+  </si>
+  <si>
+    <t>R_Hamdana.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_1581.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.55.36.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6852.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.16.10.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.08.46 (1).jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6876.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6999.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.54 (2).jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6976.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1588.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6980.JPG</t>
+  </si>
+  <si>
+    <t>R_image017.png</t>
+  </si>
+  <si>
+    <t>L_image073.png</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.56 (1).jpeg</t>
+  </si>
+  <si>
+    <t>R_image085.png</t>
+  </si>
+  <si>
+    <t>R_IMG_7069.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7021.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7100.JPG</t>
+  </si>
+  <si>
+    <t>R_image035.png</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.14.51.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6886.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6889.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6833.JPG</t>
+  </si>
+  <si>
+    <t>L_18,1.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.57 (3).jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_6992.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1597.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7014.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6995.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1602.JPG</t>
+  </si>
+  <si>
+    <t>L_image077.png</t>
+  </si>
+  <si>
+    <t>L_image063.png</t>
+  </si>
+  <si>
+    <t>L_Amri.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6984.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6909.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7079.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1610.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6922.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6799.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6883.JPG</t>
+  </si>
+  <si>
+    <t>R_image037.png</t>
+  </si>
+  <si>
+    <t>R_Sana Balubita.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7039.JPG</t>
+  </si>
+  <si>
+    <t>L_image027.png</t>
+  </si>
+  <si>
+    <t>R_IMG_6818.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.54 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.57.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6917.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.56 (2).jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_7033.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6973.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7036.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1594.JPG</t>
+  </si>
+  <si>
+    <t>L_Amirullah.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.01.47.jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_7053.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_1580.JPG</t>
+  </si>
+  <si>
+    <t>R_Muhammad Arfah.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.58.jpeg</t>
+  </si>
+  <si>
+    <t>L_Sulaeman.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.56.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.06.10 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.57 (2).jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_1585.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7048.JPG</t>
+  </si>
+  <si>
+    <t>R_Burhanuddin.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.55 (1).jpeg</t>
+  </si>
+  <si>
+    <t>R_Nurung.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6880.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.05.13.jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_6778.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.10.03.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6814.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.33.00.jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_6960.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7083.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_1608.JPG</t>
+  </si>
+  <si>
+    <t>L_Imran.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6841.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7059.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1636.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6832.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7096.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1633.JPG</t>
+  </si>
+  <si>
+    <t>R_image049.png</t>
+  </si>
+  <si>
+    <t>R_image067.png</t>
+  </si>
+  <si>
+    <t>L_H. Nganro.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6781.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6914.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7087.JPG</t>
+  </si>
+  <si>
+    <t>L_image043.png</t>
+  </si>
+  <si>
+    <t>L_IMG_6871.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7005.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6972.JPG</t>
+  </si>
+  <si>
+    <t>L_image019.png</t>
+  </si>
+  <si>
+    <t>R_IMG_7094.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.08.46.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.32.59.jpeg</t>
+  </si>
+  <si>
+    <t>L_Daeng Marala.JPG</t>
+  </si>
+  <si>
+    <t>L_Dege dg. Mangun.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.53 (3).jpeg</t>
+  </si>
+  <si>
+    <t>L_image071.png</t>
+  </si>
+  <si>
+    <t>R_Paulus P.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7043.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.54.jpeg</t>
+  </si>
+  <si>
+    <t>L_Vera E Polnaya.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6816.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7085.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.04.32 (1).jpeg</t>
+  </si>
+  <si>
+    <t>Pasien Katarak.jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_6988.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6803.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7088.JPG</t>
+  </si>
+  <si>
+    <t>L_image065.png</t>
+  </si>
+  <si>
+    <t>L_IMG_7027.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7003.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7105.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7023.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.08.13.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.08.46 (2).jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6810.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6829.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.04.32.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_7065.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6786.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6986.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6982.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.10.32.jpeg</t>
+  </si>
+  <si>
+    <t>L_Sitti Hapsah.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6897.JPG</t>
+  </si>
+  <si>
+    <t>L_image069.png</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.55.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6861.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.14.52.jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_1621.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_1583.JPG</t>
+  </si>
+  <si>
+    <t>L_image075.png</t>
+  </si>
+  <si>
+    <t>R_IMG_6901.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6958.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.33.02.jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_6843.JPG</t>
+  </si>
+  <si>
+    <t>L_image079.png</t>
+  </si>
+  <si>
+    <t>L_IMG_7080.JPG</t>
+  </si>
+  <si>
+    <t>L_Sarifuddin Dg. Gassing.JPG</t>
+  </si>
+  <si>
+    <t>L_image051.png</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.57 (4).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.00.59.jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_6784.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7012.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.33.01.jpeg</t>
+  </si>
+  <si>
+    <t>R_image045.png</t>
+  </si>
+  <si>
+    <t>L_Ny Siti Hajar.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6827.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6964.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.53 (4).jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_7070.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6962.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6966.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6920.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.57 (1).jpeg</t>
+  </si>
+  <si>
+    <t>R_image005.png</t>
+  </si>
+  <si>
+    <t>R_IMG_7028.JPG</t>
+  </si>
+  <si>
+    <t>R_image023.png</t>
+  </si>
+  <si>
+    <t>R_image001.png</t>
+  </si>
+  <si>
+    <t>L_IMG_1589.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7057.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6853.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6977.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.06.10.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6777.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6868.JPG</t>
+  </si>
+  <si>
+    <t>R_image081.png</t>
+  </si>
+  <si>
+    <t>L_image025.png</t>
+  </si>
+  <si>
+    <t>R_IMG_1624.JPG</t>
+  </si>
+  <si>
+    <t>R_image011.png</t>
+  </si>
+  <si>
+    <t>R_IMG_1618.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6788.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1643.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.53 (1).jpeg</t>
   </si>
 </sst>
 </file>
@@ -984,7 +924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,16 +960,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>1153</v>
+        <v>188</v>
       </c>
       <c r="D2" t="n">
-        <v>1280</v>
+        <v>316</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>430.215</v>
+        <v>15.994</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1040,16 +980,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="D3" t="n">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>23.545</v>
+        <v>18.289</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1060,16 +1000,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>1280</v>
+        <v>682</v>
       </c>
       <c r="D4" t="n">
-        <v>960</v>
+        <v>788</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>237.245</v>
+        <v>55.806</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1080,16 +1020,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>711</v>
+        <v>256</v>
       </c>
       <c r="D5" t="n">
-        <v>628</v>
+        <v>428</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>83.236</v>
+        <v>31.208</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1100,16 +1040,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>176</v>
+        <v>762</v>
       </c>
       <c r="D6" t="n">
-        <v>294</v>
+        <v>750</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>11.161</v>
+        <v>72.911</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1120,16 +1060,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>222</v>
+        <v>762</v>
       </c>
       <c r="D7" t="n">
-        <v>370</v>
+        <v>870</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>19.355</v>
+        <v>92.39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1140,16 +1080,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D8" t="n">
-        <v>168</v>
+        <v>416</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>7.65</v>
+        <v>31.836</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1160,16 +1100,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="D9" t="n">
-        <v>140</v>
+        <v>360</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>3.605</v>
+        <v>27.468</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1180,16 +1120,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>106</v>
+        <v>656</v>
       </c>
       <c r="D10" t="n">
-        <v>176</v>
+        <v>1022</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>6.358</v>
+        <v>107.395</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1200,16 +1140,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>68</v>
+        <v>246</v>
       </c>
       <c r="D11" t="n">
-        <v>114</v>
+        <v>412</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>3.3</v>
+        <v>32.666</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1220,16 +1160,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="D12" t="n">
-        <v>160</v>
+        <v>362</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>5.692</v>
+        <v>25.867</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1240,16 +1180,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="D13" t="n">
-        <v>110</v>
+        <v>392</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>3.241</v>
+        <v>25.603</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1260,16 +1200,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>633</v>
+        <v>46</v>
       </c>
       <c r="D14" t="n">
-        <v>774</v>
+        <v>78</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>174.527</v>
+        <v>5.783</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1280,16 +1220,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D15" t="n">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>8.005000000000001</v>
+        <v>4.997</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1300,16 +1240,16 @@
         <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>116</v>
+        <v>766</v>
       </c>
       <c r="D16" t="n">
-        <v>194</v>
+        <v>977</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>6.263</v>
+        <v>161.316</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1320,16 +1260,16 @@
         <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>188</v>
+        <v>40</v>
       </c>
       <c r="D17" t="n">
-        <v>314</v>
+        <v>68</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>13.935</v>
+        <v>4.248</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1340,16 +1280,16 @@
         <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="D18" t="n">
-        <v>246</v>
+        <v>364</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>14.605</v>
+        <v>22.357</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1360,16 +1300,16 @@
         <v>24</v>
       </c>
       <c r="C19" t="n">
-        <v>906</v>
+        <v>194</v>
       </c>
       <c r="D19" t="n">
-        <v>998</v>
+        <v>326</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>114.135</v>
+        <v>21.378</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1380,16 +1320,16 @@
         <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="D20" t="n">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>10.741</v>
+        <v>22.824</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1400,16 +1340,16 @@
         <v>26</v>
       </c>
       <c r="C21" t="n">
-        <v>1280</v>
+        <v>38</v>
       </c>
       <c r="D21" t="n">
-        <v>622</v>
+        <v>66</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>173.117</v>
+        <v>4.901</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1420,16 +1360,16 @@
         <v>27</v>
       </c>
       <c r="C22" t="n">
-        <v>72</v>
+        <v>852</v>
       </c>
       <c r="D22" t="n">
-        <v>120</v>
+        <v>1280</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>2.683</v>
+        <v>134.641</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1440,16 +1380,16 @@
         <v>28</v>
       </c>
       <c r="C23" t="n">
-        <v>1280</v>
+        <v>252</v>
       </c>
       <c r="D23" t="n">
-        <v>960</v>
+        <v>422</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>285.284</v>
+        <v>30.511</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1460,16 +1400,16 @@
         <v>29</v>
       </c>
       <c r="C24" t="n">
-        <v>1280</v>
+        <v>286</v>
       </c>
       <c r="D24" t="n">
-        <v>1270</v>
+        <v>478</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>484.648</v>
+        <v>38.713</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1480,16 +1420,16 @@
         <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>918</v>
+        <v>196</v>
       </c>
       <c r="D25" t="n">
-        <v>1280</v>
+        <v>328</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>288.771</v>
+        <v>22.738</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1500,16 +1440,16 @@
         <v>31</v>
       </c>
       <c r="C26" t="n">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="D26" t="n">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>4.095</v>
+        <v>9.737</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1520,16 +1460,16 @@
         <v>32</v>
       </c>
       <c r="C27" t="n">
-        <v>312</v>
+        <v>685</v>
       </c>
       <c r="D27" t="n">
-        <v>522</v>
+        <v>1022</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>50.147</v>
+        <v>135.339</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1540,16 +1480,16 @@
         <v>33</v>
       </c>
       <c r="C28" t="n">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="D28" t="n">
-        <v>256</v>
+        <v>360</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>10.882</v>
+        <v>26.262</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1560,16 +1500,16 @@
         <v>34</v>
       </c>
       <c r="C29" t="n">
-        <v>118</v>
+        <v>264</v>
       </c>
       <c r="D29" t="n">
-        <v>198</v>
+        <v>442</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>5.978</v>
+        <v>30.537</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1580,16 +1520,16 @@
         <v>35</v>
       </c>
       <c r="C30" t="n">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="D30" t="n">
-        <v>156</v>
+        <v>390</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>3.953</v>
+        <v>29.085</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1600,16 +1540,16 @@
         <v>36</v>
       </c>
       <c r="C31" t="n">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="D31" t="n">
-        <v>194</v>
+        <v>344</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>6.232</v>
+        <v>21.539</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1620,16 +1560,16 @@
         <v>37</v>
       </c>
       <c r="C32" t="n">
-        <v>960</v>
+        <v>234</v>
       </c>
       <c r="D32" t="n">
-        <v>1280</v>
+        <v>390</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>211.947</v>
+        <v>23.338</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1640,16 +1580,16 @@
         <v>38</v>
       </c>
       <c r="C33" t="n">
-        <v>294</v>
+        <v>52</v>
       </c>
       <c r="D33" t="n">
-        <v>490</v>
+        <v>86</v>
       </c>
       <c r="E33" t="n">
         <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>31.012</v>
+        <v>7.168</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1660,16 +1600,16 @@
         <v>39</v>
       </c>
       <c r="C34" t="n">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="D34" t="n">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="E34" t="n">
         <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>3.676</v>
+        <v>4.338</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1680,16 +1620,16 @@
         <v>40</v>
       </c>
       <c r="C35" t="n">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="D35" t="n">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>22.662</v>
+        <v>12.589</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1700,16 +1640,16 @@
         <v>41</v>
       </c>
       <c r="C36" t="n">
-        <v>1280</v>
+        <v>238</v>
       </c>
       <c r="D36" t="n">
-        <v>1203</v>
+        <v>396</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>393.084</v>
+        <v>29.205</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1720,16 +1660,16 @@
         <v>42</v>
       </c>
       <c r="C37" t="n">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="D37" t="n">
-        <v>190</v>
+        <v>332</v>
       </c>
       <c r="E37" t="n">
         <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>6.831</v>
+        <v>22.571</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1740,16 +1680,16 @@
         <v>43</v>
       </c>
       <c r="C38" t="n">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="D38" t="n">
-        <v>188</v>
+        <v>348</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>6.255</v>
+        <v>23.168</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1760,16 +1700,16 @@
         <v>44</v>
       </c>
       <c r="C39" t="n">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="D39" t="n">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="E39" t="n">
         <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>22.437</v>
+        <v>25.952</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1780,16 +1720,16 @@
         <v>45</v>
       </c>
       <c r="C40" t="n">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="D40" t="n">
-        <v>192</v>
+        <v>338</v>
       </c>
       <c r="E40" t="n">
         <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>6.7</v>
+        <v>21.322</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1800,16 +1740,16 @@
         <v>46</v>
       </c>
       <c r="C41" t="n">
-        <v>1316</v>
+        <v>190</v>
       </c>
       <c r="D41" t="n">
-        <v>1755</v>
+        <v>318</v>
       </c>
       <c r="E41" t="n">
         <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>729.586</v>
+        <v>21.492</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1820,16 +1760,16 @@
         <v>47</v>
       </c>
       <c r="C42" t="n">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="D42" t="n">
-        <v>140</v>
+        <v>364</v>
       </c>
       <c r="E42" t="n">
         <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>4.187</v>
+        <v>22.222</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1840,16 +1780,16 @@
         <v>48</v>
       </c>
       <c r="C43" t="n">
-        <v>716</v>
+        <v>32</v>
       </c>
       <c r="D43" t="n">
-        <v>725</v>
+        <v>54</v>
       </c>
       <c r="E43" t="n">
         <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>129.628</v>
+        <v>3.105</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1860,16 +1800,16 @@
         <v>49</v>
       </c>
       <c r="C44" t="n">
-        <v>588</v>
+        <v>174</v>
       </c>
       <c r="D44" t="n">
-        <v>784</v>
+        <v>292</v>
       </c>
       <c r="E44" t="n">
         <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>146.422</v>
+        <v>17.571</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1880,16 +1820,16 @@
         <v>50</v>
       </c>
       <c r="C45" t="n">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="D45" t="n">
-        <v>184</v>
+        <v>394</v>
       </c>
       <c r="E45" t="n">
         <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>6.934</v>
+        <v>30.85</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1900,16 +1840,16 @@
         <v>51</v>
       </c>
       <c r="C46" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="D46" t="n">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="E46" t="n">
         <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>8.464</v>
+        <v>4.023</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1920,16 +1860,16 @@
         <v>52</v>
       </c>
       <c r="C47" t="n">
-        <v>431</v>
+        <v>186</v>
       </c>
       <c r="D47" t="n">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>63.563</v>
+        <v>16.846</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1940,16 +1880,16 @@
         <v>53</v>
       </c>
       <c r="C48" t="n">
-        <v>346</v>
+        <v>740</v>
       </c>
       <c r="D48" t="n">
-        <v>576</v>
+        <v>1022</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>46.328</v>
+        <v>131.453</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1960,16 +1900,16 @@
         <v>54</v>
       </c>
       <c r="C49" t="n">
-        <v>84</v>
+        <v>703</v>
       </c>
       <c r="D49" t="n">
-        <v>142</v>
+        <v>1022</v>
       </c>
       <c r="E49" t="n">
         <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>5.008</v>
+        <v>175.409</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1980,16 +1920,16 @@
         <v>55</v>
       </c>
       <c r="C50" t="n">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="D50" t="n">
-        <v>248</v>
+        <v>368</v>
       </c>
       <c r="E50" t="n">
         <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>10.2</v>
+        <v>24.298</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2000,16 +1940,16 @@
         <v>56</v>
       </c>
       <c r="C51" t="n">
-        <v>190</v>
+        <v>577</v>
       </c>
       <c r="D51" t="n">
-        <v>316</v>
+        <v>1022</v>
       </c>
       <c r="E51" t="n">
         <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>20.172</v>
+        <v>122.394</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2020,16 +1960,16 @@
         <v>57</v>
       </c>
       <c r="C52" t="n">
-        <v>620</v>
+        <v>228</v>
       </c>
       <c r="D52" t="n">
-        <v>720</v>
+        <v>382</v>
       </c>
       <c r="E52" t="n">
         <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>132.564</v>
+        <v>30.662</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2040,16 +1980,16 @@
         <v>58</v>
       </c>
       <c r="C53" t="n">
-        <v>152</v>
+        <v>282</v>
       </c>
       <c r="D53" t="n">
-        <v>254</v>
+        <v>470</v>
       </c>
       <c r="E53" t="n">
         <v>3</v>
       </c>
       <c r="F53" t="n">
-        <v>10.48</v>
+        <v>43.025</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2060,16 +2000,16 @@
         <v>59</v>
       </c>
       <c r="C54" t="n">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="D54" t="n">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="E54" t="n">
         <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>23.631</v>
+        <v>29.536</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2080,16 +2020,16 @@
         <v>60</v>
       </c>
       <c r="C55" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D55" t="n">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="E55" t="n">
         <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>5.532</v>
+        <v>8.752000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2100,16 +2040,16 @@
         <v>61</v>
       </c>
       <c r="C56" t="n">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="D56" t="n">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="E56" t="n">
         <v>3</v>
       </c>
       <c r="F56" t="n">
-        <v>2.927</v>
+        <v>20.958</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2120,16 +2060,16 @@
         <v>62</v>
       </c>
       <c r="C57" t="n">
-        <v>192</v>
+        <v>1280</v>
       </c>
       <c r="D57" t="n">
-        <v>322</v>
+        <v>576</v>
       </c>
       <c r="E57" t="n">
         <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>16.177</v>
+        <v>28.619</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2140,16 +2080,16 @@
         <v>63</v>
       </c>
       <c r="C58" t="n">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="D58" t="n">
-        <v>130</v>
+        <v>336</v>
       </c>
       <c r="E58" t="n">
         <v>3</v>
       </c>
       <c r="F58" t="n">
-        <v>3.538</v>
+        <v>21.648</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2160,16 +2100,16 @@
         <v>64</v>
       </c>
       <c r="C59" t="n">
-        <v>1001</v>
+        <v>266</v>
       </c>
       <c r="D59" t="n">
-        <v>1218</v>
+        <v>444</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
       </c>
       <c r="F59" t="n">
-        <v>362.57</v>
+        <v>36.448</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2180,16 +2120,16 @@
         <v>65</v>
       </c>
       <c r="C60" t="n">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D60" t="n">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E60" t="n">
         <v>3</v>
       </c>
       <c r="F60" t="n">
-        <v>14.135</v>
+        <v>14.089</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2200,16 +2140,16 @@
         <v>66</v>
       </c>
       <c r="C61" t="n">
-        <v>96</v>
+        <v>638</v>
       </c>
       <c r="D61" t="n">
-        <v>160</v>
+        <v>1022</v>
       </c>
       <c r="E61" t="n">
         <v>3</v>
       </c>
       <c r="F61" t="n">
-        <v>7.809</v>
+        <v>85.489</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2220,16 +2160,16 @@
         <v>67</v>
       </c>
       <c r="C62" t="n">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="D62" t="n">
-        <v>118</v>
+        <v>296</v>
       </c>
       <c r="E62" t="n">
         <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>17.224</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2240,16 +2180,16 @@
         <v>68</v>
       </c>
       <c r="C63" t="n">
-        <v>473</v>
+        <v>717</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>1022</v>
       </c>
       <c r="E63" t="n">
         <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>69.431</v>
+        <v>136.974</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2260,16 +2200,16 @@
         <v>69</v>
       </c>
       <c r="C64" t="n">
-        <v>1280</v>
+        <v>855</v>
       </c>
       <c r="D64" t="n">
-        <v>1155</v>
+        <v>1230</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
       </c>
       <c r="F64" t="n">
-        <v>315.45</v>
+        <v>137.824</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2280,16 +2220,16 @@
         <v>70</v>
       </c>
       <c r="C65" t="n">
-        <v>180</v>
+        <v>748</v>
       </c>
       <c r="D65" t="n">
-        <v>300</v>
+        <v>1022</v>
       </c>
       <c r="E65" t="n">
         <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>12.349</v>
+        <v>139.794</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2300,16 +2240,16 @@
         <v>71</v>
       </c>
       <c r="C66" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D66" t="n">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E66" t="n">
         <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>10.754</v>
+        <v>13.818</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2320,16 +2260,16 @@
         <v>72</v>
       </c>
       <c r="C67" t="n">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="D67" t="n">
-        <v>186</v>
+        <v>410</v>
       </c>
       <c r="E67" t="n">
         <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>5.279</v>
+        <v>26.419</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2340,16 +2280,16 @@
         <v>73</v>
       </c>
       <c r="C68" t="n">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D68" t="n">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>10.611</v>
+        <v>15.013</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2360,16 +2300,16 @@
         <v>74</v>
       </c>
       <c r="C69" t="n">
-        <v>272</v>
+        <v>586</v>
       </c>
       <c r="D69" t="n">
-        <v>454</v>
+        <v>1022</v>
       </c>
       <c r="E69" t="n">
         <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>26.754</v>
+        <v>121.747</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2380,16 +2320,16 @@
         <v>75</v>
       </c>
       <c r="C70" t="n">
-        <v>466</v>
+        <v>172</v>
       </c>
       <c r="D70" t="n">
-        <v>404</v>
+        <v>288</v>
       </c>
       <c r="E70" t="n">
         <v>3</v>
       </c>
       <c r="F70" t="n">
-        <v>37.391</v>
+        <v>14.737</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2400,16 +2340,16 @@
         <v>76</v>
       </c>
       <c r="C71" t="n">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="D71" t="n">
-        <v>188</v>
+        <v>402</v>
       </c>
       <c r="E71" t="n">
         <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>7.056</v>
+        <v>24.922</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2420,16 +2360,16 @@
         <v>77</v>
       </c>
       <c r="C72" t="n">
-        <v>905</v>
+        <v>959</v>
       </c>
       <c r="D72" t="n">
-        <v>1025</v>
+        <v>1280</v>
       </c>
       <c r="E72" t="n">
         <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>211.418</v>
+        <v>108.547</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2440,16 +2380,16 @@
         <v>78</v>
       </c>
       <c r="C73" t="n">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="D73" t="n">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>7.446</v>
+        <v>13.094</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2460,16 +2400,16 @@
         <v>79</v>
       </c>
       <c r="C74" t="n">
+        <v>959</v>
+      </c>
+      <c r="D74" t="n">
         <v>1280</v>
       </c>
-      <c r="D74" t="n">
-        <v>960</v>
-      </c>
       <c r="E74" t="n">
         <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>242.26</v>
+        <v>75.893</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2480,16 +2420,16 @@
         <v>80</v>
       </c>
       <c r="C75" t="n">
-        <v>1117</v>
+        <v>248</v>
       </c>
       <c r="D75" t="n">
-        <v>1280</v>
+        <v>414</v>
       </c>
       <c r="E75" t="n">
         <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>270.054</v>
+        <v>21.978</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2500,16 +2440,16 @@
         <v>81</v>
       </c>
       <c r="C76" t="n">
-        <v>176</v>
+        <v>1280</v>
       </c>
       <c r="D76" t="n">
-        <v>296</v>
+        <v>960</v>
       </c>
       <c r="E76" t="n">
         <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>14.262</v>
+        <v>124.783</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2520,16 +2460,16 @@
         <v>82</v>
       </c>
       <c r="C77" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="D77" t="n">
-        <v>184</v>
+        <v>450</v>
       </c>
       <c r="E77" t="n">
         <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>7.043</v>
+        <v>41.825</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2540,16 +2480,16 @@
         <v>83</v>
       </c>
       <c r="C78" t="n">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="D78" t="n">
-        <v>130</v>
+        <v>392</v>
       </c>
       <c r="E78" t="n">
         <v>3</v>
       </c>
       <c r="F78" t="n">
-        <v>3.34</v>
+        <v>28.018</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2560,16 +2500,16 @@
         <v>84</v>
       </c>
       <c r="C79" t="n">
-        <v>662</v>
+        <v>254</v>
       </c>
       <c r="D79" t="n">
-        <v>655</v>
+        <v>424</v>
       </c>
       <c r="E79" t="n">
         <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>112.166</v>
+        <v>31.976</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2580,16 +2520,16 @@
         <v>85</v>
       </c>
       <c r="C80" t="n">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="D80" t="n">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="E80" t="n">
         <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>3.448</v>
+        <v>13.712</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2600,16 +2540,16 @@
         <v>86</v>
       </c>
       <c r="C81" t="n">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="D81" t="n">
-        <v>176</v>
+        <v>376</v>
       </c>
       <c r="E81" t="n">
         <v>3</v>
       </c>
       <c r="F81" t="n">
-        <v>6.307</v>
+        <v>22.921</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2620,16 +2560,16 @@
         <v>87</v>
       </c>
       <c r="C82" t="n">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="D82" t="n">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="E82" t="n">
         <v>3</v>
       </c>
       <c r="F82" t="n">
-        <v>20.164</v>
+        <v>29.767</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2640,16 +2580,16 @@
         <v>88</v>
       </c>
       <c r="C83" t="n">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="D83" t="n">
-        <v>490</v>
+        <v>344</v>
       </c>
       <c r="E83" t="n">
         <v>3</v>
       </c>
       <c r="F83" t="n">
-        <v>30.087</v>
+        <v>21.445</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2660,16 +2600,16 @@
         <v>89</v>
       </c>
       <c r="C84" t="n">
-        <v>1015</v>
+        <v>260</v>
       </c>
       <c r="D84" t="n">
-        <v>1113</v>
+        <v>432</v>
       </c>
       <c r="E84" t="n">
         <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>288.908</v>
+        <v>35.191</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2680,16 +2620,16 @@
         <v>90</v>
       </c>
       <c r="C85" t="n">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="D85" t="n">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="E85" t="n">
         <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>3.299</v>
+        <v>15.253</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2700,16 +2640,16 @@
         <v>91</v>
       </c>
       <c r="C86" t="n">
-        <v>1280</v>
+        <v>166</v>
       </c>
       <c r="D86" t="n">
-        <v>960</v>
+        <v>278</v>
       </c>
       <c r="E86" t="n">
         <v>3</v>
       </c>
       <c r="F86" t="n">
-        <v>224.587</v>
+        <v>14.816</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2720,16 +2660,16 @@
         <v>92</v>
       </c>
       <c r="C87" t="n">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="D87" t="n">
-        <v>328</v>
+        <v>60</v>
       </c>
       <c r="E87" t="n">
         <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>25.523</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2740,16 +2680,16 @@
         <v>93</v>
       </c>
       <c r="C88" t="n">
-        <v>365</v>
+        <v>50</v>
       </c>
       <c r="D88" t="n">
-        <v>323</v>
+        <v>86</v>
       </c>
       <c r="E88" t="n">
         <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>20.383</v>
+        <v>7.468</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2760,16 +2700,16 @@
         <v>94</v>
       </c>
       <c r="C89" t="n">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="D89" t="n">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="E89" t="n">
         <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>10.204</v>
+        <v>23.875</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2780,16 +2720,16 @@
         <v>95</v>
       </c>
       <c r="C90" t="n">
-        <v>312</v>
+        <v>196</v>
       </c>
       <c r="D90" t="n">
-        <v>522</v>
+        <v>328</v>
       </c>
       <c r="E90" t="n">
         <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>46.555</v>
+        <v>21.645</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2800,16 +2740,16 @@
         <v>96</v>
       </c>
       <c r="C91" t="n">
-        <v>82</v>
+        <v>250</v>
       </c>
       <c r="D91" t="n">
-        <v>136</v>
+        <v>416</v>
       </c>
       <c r="E91" t="n">
         <v>3</v>
       </c>
       <c r="F91" t="n">
-        <v>3.949</v>
+        <v>31.254</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2820,16 +2760,16 @@
         <v>97</v>
       </c>
       <c r="C92" t="n">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="D92" t="n">
-        <v>146</v>
+        <v>426</v>
       </c>
       <c r="E92" t="n">
         <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>3.699</v>
+        <v>34.625</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2840,16 +2780,16 @@
         <v>98</v>
       </c>
       <c r="C93" t="n">
-        <v>1060</v>
+        <v>38</v>
       </c>
       <c r="D93" t="n">
-        <v>1280</v>
+        <v>64</v>
       </c>
       <c r="E93" t="n">
         <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>299.08</v>
+        <v>4.556</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2860,16 +2800,16 @@
         <v>99</v>
       </c>
       <c r="C94" t="n">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="D94" t="n">
-        <v>454</v>
+        <v>364</v>
       </c>
       <c r="E94" t="n">
         <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>27.559</v>
+        <v>27.358</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2880,16 +2820,16 @@
         <v>100</v>
       </c>
       <c r="C95" t="n">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="D95" t="n">
-        <v>192</v>
+        <v>332</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>5.433</v>
+        <v>18.523</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2900,16 +2840,16 @@
         <v>101</v>
       </c>
       <c r="C96" t="n">
-        <v>457</v>
+        <v>248</v>
       </c>
       <c r="D96" t="n">
-        <v>517</v>
+        <v>414</v>
       </c>
       <c r="E96" t="n">
         <v>3</v>
       </c>
       <c r="F96" t="n">
-        <v>96.956</v>
+        <v>35.113</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2920,16 +2860,16 @@
         <v>102</v>
       </c>
       <c r="C97" t="n">
-        <v>662</v>
+        <v>30</v>
       </c>
       <c r="D97" t="n">
-        <v>655</v>
+        <v>50</v>
       </c>
       <c r="E97" t="n">
         <v>3</v>
       </c>
       <c r="F97" t="n">
-        <v>112.166</v>
+        <v>2.696</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2940,16 +2880,16 @@
         <v>103</v>
       </c>
       <c r="C98" t="n">
-        <v>821</v>
+        <v>230</v>
       </c>
       <c r="D98" t="n">
-        <v>1024</v>
+        <v>384</v>
       </c>
       <c r="E98" t="n">
         <v>3</v>
       </c>
       <c r="F98" t="n">
-        <v>238.748</v>
+        <v>27.785</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2960,16 +2900,16 @@
         <v>104</v>
       </c>
       <c r="C99" t="n">
-        <v>156</v>
+        <v>762</v>
       </c>
       <c r="D99" t="n">
-        <v>260</v>
+        <v>918</v>
       </c>
       <c r="E99" t="n">
         <v>3</v>
       </c>
       <c r="F99" t="n">
-        <v>13.026</v>
+        <v>103.721</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2980,7 +2920,7 @@
         <v>105</v>
       </c>
       <c r="C100" t="n">
-        <v>815</v>
+        <v>960</v>
       </c>
       <c r="D100" t="n">
         <v>1280</v>
@@ -2989,7 +2929,7 @@
         <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>227.915</v>
+        <v>104.775</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3000,16 +2940,16 @@
         <v>106</v>
       </c>
       <c r="C101" t="n">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="D101" t="n">
-        <v>302</v>
+        <v>454</v>
       </c>
       <c r="E101" t="n">
         <v>3</v>
       </c>
       <c r="F101" t="n">
-        <v>12.821</v>
+        <v>35.367</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3020,16 +2960,16 @@
         <v>107</v>
       </c>
       <c r="C102" t="n">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D102" t="n">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="E102" t="n">
         <v>3</v>
       </c>
       <c r="F102" t="n">
-        <v>10.104</v>
+        <v>17.956</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3040,16 +2980,16 @@
         <v>108</v>
       </c>
       <c r="C103" t="n">
-        <v>180</v>
+        <v>705</v>
       </c>
       <c r="D103" t="n">
-        <v>300</v>
+        <v>1021</v>
       </c>
       <c r="E103" t="n">
         <v>3</v>
       </c>
       <c r="F103" t="n">
-        <v>14.37</v>
+        <v>140.404</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3060,16 +3000,16 @@
         <v>109</v>
       </c>
       <c r="C104" t="n">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="D104" t="n">
-        <v>292</v>
+        <v>66</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>11.49</v>
+        <v>4.294</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3080,16 +3020,16 @@
         <v>110</v>
       </c>
       <c r="C105" t="n">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="D105" t="n">
-        <v>160</v>
+        <v>408</v>
       </c>
       <c r="E105" t="n">
         <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>4.348</v>
+        <v>31.448</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3100,16 +3040,16 @@
         <v>111</v>
       </c>
       <c r="C106" t="n">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D106" t="n">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="E106" t="n">
         <v>3</v>
       </c>
       <c r="F106" t="n">
-        <v>38.071</v>
+        <v>25.753</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3120,16 +3060,16 @@
         <v>112</v>
       </c>
       <c r="C107" t="n">
-        <v>1020</v>
+        <v>669</v>
       </c>
       <c r="D107" t="n">
-        <v>1234</v>
+        <v>1022</v>
       </c>
       <c r="E107" t="n">
         <v>3</v>
       </c>
       <c r="F107" t="n">
-        <v>278.685</v>
+        <v>147.191</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3140,16 +3080,16 @@
         <v>113</v>
       </c>
       <c r="C108" t="n">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="D108" t="n">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="E108" t="n">
         <v>3</v>
       </c>
       <c r="F108" t="n">
-        <v>3.514</v>
+        <v>17.431</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3160,16 +3100,16 @@
         <v>114</v>
       </c>
       <c r="C109" t="n">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="D109" t="n">
-        <v>200</v>
+        <v>362</v>
       </c>
       <c r="E109" t="n">
         <v>3</v>
       </c>
       <c r="F109" t="n">
-        <v>7.267</v>
+        <v>27.548</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3180,16 +3120,16 @@
         <v>115</v>
       </c>
       <c r="C110" t="n">
-        <v>1024</v>
+        <v>210</v>
       </c>
       <c r="D110" t="n">
-        <v>768</v>
+        <v>350</v>
       </c>
       <c r="E110" t="n">
         <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>199.809</v>
+        <v>23.514</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3200,16 +3140,16 @@
         <v>116</v>
       </c>
       <c r="C111" t="n">
-        <v>76</v>
+        <v>841</v>
       </c>
       <c r="D111" t="n">
-        <v>128</v>
+        <v>1280</v>
       </c>
       <c r="E111" t="n">
         <v>3</v>
       </c>
       <c r="F111" t="n">
-        <v>3.614</v>
+        <v>115.487</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3220,16 +3160,16 @@
         <v>117</v>
       </c>
       <c r="C112" t="n">
-        <v>114</v>
+        <v>1157</v>
       </c>
       <c r="D112" t="n">
-        <v>190</v>
+        <v>1043</v>
       </c>
       <c r="E112" t="n">
         <v>3</v>
       </c>
       <c r="F112" t="n">
-        <v>5.605</v>
+        <v>350.679</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3240,16 +3180,16 @@
         <v>118</v>
       </c>
       <c r="C113" t="n">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="D113" t="n">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="E113" t="n">
         <v>3</v>
       </c>
       <c r="F113" t="n">
-        <v>13.402</v>
+        <v>27.327</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3260,16 +3200,16 @@
         <v>119</v>
       </c>
       <c r="C114" t="n">
-        <v>581</v>
+        <v>242</v>
       </c>
       <c r="D114" t="n">
-        <v>900</v>
+        <v>402</v>
       </c>
       <c r="E114" t="n">
         <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>106.817</v>
+        <v>32.627</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3280,16 +3220,16 @@
         <v>120</v>
       </c>
       <c r="C115" t="n">
-        <v>1252</v>
+        <v>170</v>
       </c>
       <c r="D115" t="n">
-        <v>1280</v>
+        <v>284</v>
       </c>
       <c r="E115" t="n">
         <v>3</v>
       </c>
       <c r="F115" t="n">
-        <v>326.953</v>
+        <v>15.222</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3300,16 +3240,16 @@
         <v>121</v>
       </c>
       <c r="C116" t="n">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="D116" t="n">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="E116" t="n">
         <v>3</v>
       </c>
       <c r="F116" t="n">
-        <v>4.789</v>
+        <v>6.106</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3320,16 +3260,16 @@
         <v>122</v>
       </c>
       <c r="C117" t="n">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="D117" t="n">
-        <v>326</v>
+        <v>394</v>
       </c>
       <c r="E117" t="n">
         <v>3</v>
       </c>
       <c r="F117" t="n">
-        <v>22.179</v>
+        <v>30.699</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3340,16 +3280,16 @@
         <v>123</v>
       </c>
       <c r="C118" t="n">
-        <v>1090</v>
+        <v>202</v>
       </c>
       <c r="D118" t="n">
-        <v>1280</v>
+        <v>338</v>
       </c>
       <c r="E118" t="n">
         <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>259.715</v>
+        <v>24.439</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3360,16 +3300,16 @@
         <v>124</v>
       </c>
       <c r="C119" t="n">
-        <v>1280</v>
+        <v>202</v>
       </c>
       <c r="D119" t="n">
-        <v>960</v>
+        <v>336</v>
       </c>
       <c r="E119" t="n">
         <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>314.988</v>
+        <v>22.061</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3380,16 +3320,16 @@
         <v>125</v>
       </c>
       <c r="C120" t="n">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="D120" t="n">
-        <v>146</v>
+        <v>308</v>
       </c>
       <c r="E120" t="n">
         <v>3</v>
       </c>
       <c r="F120" t="n">
-        <v>4.344</v>
+        <v>20.538</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3400,16 +3340,16 @@
         <v>126</v>
       </c>
       <c r="C121" t="n">
-        <v>70</v>
+        <v>954</v>
       </c>
       <c r="D121" t="n">
-        <v>118</v>
+        <v>1280</v>
       </c>
       <c r="E121" t="n">
         <v>3</v>
       </c>
       <c r="F121" t="n">
-        <v>3.076</v>
+        <v>175.898</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3420,16 +3360,16 @@
         <v>127</v>
       </c>
       <c r="C122" t="n">
-        <v>118</v>
+        <v>762</v>
       </c>
       <c r="D122" t="n">
-        <v>198</v>
+        <v>870</v>
       </c>
       <c r="E122" t="n">
         <v>3</v>
       </c>
       <c r="F122" t="n">
-        <v>5.946</v>
+        <v>92.39</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3440,16 +3380,16 @@
         <v>128</v>
       </c>
       <c r="C123" t="n">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="D123" t="n">
-        <v>314</v>
+        <v>428</v>
       </c>
       <c r="E123" t="n">
         <v>3</v>
       </c>
       <c r="F123" t="n">
-        <v>13.55</v>
+        <v>31.757</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3460,16 +3400,16 @@
         <v>129</v>
       </c>
       <c r="C124" t="n">
-        <v>1080</v>
+        <v>224</v>
       </c>
       <c r="D124" t="n">
-        <v>1280</v>
+        <v>376</v>
       </c>
       <c r="E124" t="n">
         <v>3</v>
       </c>
       <c r="F124" t="n">
-        <v>445.986</v>
+        <v>24.139</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3480,16 +3420,16 @@
         <v>130</v>
       </c>
       <c r="C125" t="n">
-        <v>918</v>
+        <v>841</v>
       </c>
       <c r="D125" t="n">
-        <v>958</v>
+        <v>1280</v>
       </c>
       <c r="E125" t="n">
         <v>3</v>
       </c>
       <c r="F125" t="n">
-        <v>277.175</v>
+        <v>115.487</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3500,16 +3440,16 @@
         <v>131</v>
       </c>
       <c r="C126" t="n">
-        <v>86</v>
+        <v>264</v>
       </c>
       <c r="D126" t="n">
-        <v>146</v>
+        <v>440</v>
       </c>
       <c r="E126" t="n">
         <v>3</v>
       </c>
       <c r="F126" t="n">
-        <v>3.748</v>
+        <v>33.529</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3520,16 +3460,16 @@
         <v>132</v>
       </c>
       <c r="C127" t="n">
-        <v>1004</v>
+        <v>204</v>
       </c>
       <c r="D127" t="n">
-        <v>1280</v>
+        <v>340</v>
       </c>
       <c r="E127" t="n">
         <v>3</v>
       </c>
       <c r="F127" t="n">
-        <v>267.887</v>
+        <v>24.823</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3540,16 +3480,16 @@
         <v>133</v>
       </c>
       <c r="C128" t="n">
-        <v>720</v>
+        <v>236</v>
       </c>
       <c r="D128" t="n">
-        <v>1280</v>
+        <v>394</v>
       </c>
       <c r="E128" t="n">
         <v>3</v>
       </c>
       <c r="F128" t="n">
-        <v>222.177</v>
+        <v>30.164</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3560,16 +3500,16 @@
         <v>134</v>
       </c>
       <c r="C129" t="n">
-        <v>64</v>
+        <v>260</v>
       </c>
       <c r="D129" t="n">
-        <v>108</v>
+        <v>434</v>
       </c>
       <c r="E129" t="n">
         <v>3</v>
       </c>
       <c r="F129" t="n">
-        <v>2.463</v>
+        <v>37.493</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3580,16 +3520,16 @@
         <v>135</v>
       </c>
       <c r="C130" t="n">
-        <v>102</v>
+        <v>682</v>
       </c>
       <c r="D130" t="n">
-        <v>172</v>
+        <v>788</v>
       </c>
       <c r="E130" t="n">
         <v>3</v>
       </c>
       <c r="F130" t="n">
-        <v>4.904</v>
+        <v>55.823</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3600,16 +3540,16 @@
         <v>136</v>
       </c>
       <c r="C131" t="n">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="D131" t="n">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="E131" t="n">
         <v>3</v>
       </c>
       <c r="F131" t="n">
-        <v>14.382</v>
+        <v>23.696</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3620,16 +3560,16 @@
         <v>137</v>
       </c>
       <c r="C132" t="n">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="D132" t="n">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="E132" t="n">
         <v>3</v>
       </c>
       <c r="F132" t="n">
-        <v>38.346</v>
+        <v>37.148</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3640,16 +3580,16 @@
         <v>138</v>
       </c>
       <c r="C133" t="n">
-        <v>952</v>
+        <v>46</v>
       </c>
       <c r="D133" t="n">
-        <v>1280</v>
+        <v>78</v>
       </c>
       <c r="E133" t="n">
         <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>110.066</v>
+        <v>5.826</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3660,16 +3600,16 @@
         <v>139</v>
       </c>
       <c r="C134" t="n">
-        <v>195</v>
+        <v>628</v>
       </c>
       <c r="D134" t="n">
-        <v>198</v>
+        <v>1021</v>
       </c>
       <c r="E134" t="n">
         <v>3</v>
       </c>
       <c r="F134" t="n">
-        <v>8.167</v>
+        <v>97.133</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3680,16 +3620,16 @@
         <v>140</v>
       </c>
       <c r="C135" t="n">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="D135" t="n">
-        <v>186</v>
+        <v>398</v>
       </c>
       <c r="E135" t="n">
         <v>3</v>
       </c>
       <c r="F135" t="n">
-        <v>6.287</v>
+        <v>27.598</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3700,16 +3640,16 @@
         <v>141</v>
       </c>
       <c r="C136" t="n">
-        <v>346</v>
+        <v>508</v>
       </c>
       <c r="D136" t="n">
-        <v>576</v>
+        <v>680</v>
       </c>
       <c r="E136" t="n">
         <v>3</v>
       </c>
       <c r="F136" t="n">
-        <v>46.35</v>
+        <v>46.667</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3720,16 +3660,16 @@
         <v>142</v>
       </c>
       <c r="C137" t="n">
-        <v>974</v>
+        <v>238</v>
       </c>
       <c r="D137" t="n">
-        <v>1280</v>
+        <v>398</v>
       </c>
       <c r="E137" t="n">
         <v>3</v>
       </c>
       <c r="F137" t="n">
-        <v>269.14</v>
+        <v>22.658</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3740,16 +3680,16 @@
         <v>143</v>
       </c>
       <c r="C138" t="n">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="D138" t="n">
-        <v>300</v>
+        <v>196</v>
       </c>
       <c r="E138" t="n">
         <v>3</v>
       </c>
       <c r="F138" t="n">
-        <v>12.243</v>
+        <v>8.976000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3760,16 +3700,16 @@
         <v>144</v>
       </c>
       <c r="C139" t="n">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D139" t="n">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="E139" t="n">
         <v>3</v>
       </c>
       <c r="F139" t="n">
-        <v>3.779</v>
+        <v>6.449</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3780,16 +3720,16 @@
         <v>145</v>
       </c>
       <c r="C140" t="n">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D140" t="n">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E140" t="n">
         <v>3</v>
       </c>
       <c r="F140" t="n">
-        <v>20.362</v>
+        <v>19.034</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3800,16 +3740,16 @@
         <v>146</v>
       </c>
       <c r="C141" t="n">
-        <v>64</v>
+        <v>198</v>
       </c>
       <c r="D141" t="n">
-        <v>108</v>
+        <v>330</v>
       </c>
       <c r="E141" t="n">
         <v>3</v>
       </c>
       <c r="F141" t="n">
-        <v>2.457</v>
+        <v>22.567</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3820,16 +3760,16 @@
         <v>147</v>
       </c>
       <c r="C142" t="n">
-        <v>148</v>
+        <v>960</v>
       </c>
       <c r="D142" t="n">
-        <v>246</v>
+        <v>1280</v>
       </c>
       <c r="E142" t="n">
         <v>3</v>
       </c>
       <c r="F142" t="n">
-        <v>12.113</v>
+        <v>94.879</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3840,16 +3780,16 @@
         <v>148</v>
       </c>
       <c r="C143" t="n">
-        <v>555</v>
+        <v>168</v>
       </c>
       <c r="D143" t="n">
-        <v>715</v>
+        <v>280</v>
       </c>
       <c r="E143" t="n">
         <v>3</v>
       </c>
       <c r="F143" t="n">
-        <v>40.677</v>
+        <v>16.269</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3860,16 +3800,16 @@
         <v>149</v>
       </c>
       <c r="C144" t="n">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D144" t="n">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="E144" t="n">
         <v>3</v>
       </c>
       <c r="F144" t="n">
-        <v>4.273</v>
+        <v>6.355</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3880,16 +3820,16 @@
         <v>150</v>
       </c>
       <c r="C145" t="n">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="D145" t="n">
-        <v>302</v>
+        <v>390</v>
       </c>
       <c r="E145" t="n">
         <v>3</v>
       </c>
       <c r="F145" t="n">
-        <v>13.365</v>
+        <v>28.621</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3900,16 +3840,16 @@
         <v>151</v>
       </c>
       <c r="C146" t="n">
-        <v>974</v>
+        <v>228</v>
       </c>
       <c r="D146" t="n">
-        <v>1280</v>
+        <v>380</v>
       </c>
       <c r="E146" t="n">
         <v>3</v>
       </c>
       <c r="F146" t="n">
-        <v>269.14</v>
+        <v>27.807</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3920,16 +3860,16 @@
         <v>152</v>
       </c>
       <c r="C147" t="n">
-        <v>2228</v>
+        <v>42</v>
       </c>
       <c r="D147" t="n">
-        <v>2340</v>
+        <v>72</v>
       </c>
       <c r="E147" t="n">
         <v>3</v>
       </c>
       <c r="F147" t="n">
-        <v>988.98</v>
+        <v>4.343</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3940,16 +3880,16 @@
         <v>153</v>
       </c>
       <c r="C148" t="n">
-        <v>118</v>
+        <v>685</v>
       </c>
       <c r="D148" t="n">
-        <v>198</v>
+        <v>1022</v>
       </c>
       <c r="E148" t="n">
         <v>3</v>
       </c>
       <c r="F148" t="n">
-        <v>5.971</v>
+        <v>135.339</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3960,16 +3900,16 @@
         <v>154</v>
       </c>
       <c r="C149" t="n">
-        <v>174</v>
+        <v>631</v>
       </c>
       <c r="D149" t="n">
-        <v>292</v>
+        <v>1077</v>
       </c>
       <c r="E149" t="n">
         <v>3</v>
       </c>
       <c r="F149" t="n">
-        <v>12.486</v>
+        <v>78.62</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3980,16 +3920,16 @@
         <v>155</v>
       </c>
       <c r="C150" t="n">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="D150" t="n">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="E150" t="n">
         <v>3</v>
       </c>
       <c r="F150" t="n">
-        <v>10.031</v>
+        <v>19.942</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4000,16 +3940,16 @@
         <v>156</v>
       </c>
       <c r="C151" t="n">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="D151" t="n">
-        <v>168</v>
+        <v>328</v>
       </c>
       <c r="E151" t="n">
         <v>3</v>
       </c>
       <c r="F151" t="n">
-        <v>8.409000000000001</v>
+        <v>22.179</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4020,16 +3960,16 @@
         <v>157</v>
       </c>
       <c r="C152" t="n">
-        <v>631</v>
+        <v>960</v>
       </c>
       <c r="D152" t="n">
-        <v>706</v>
+        <v>1280</v>
       </c>
       <c r="E152" t="n">
         <v>3</v>
       </c>
       <c r="F152" t="n">
-        <v>87.004</v>
+        <v>118.554</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4040,16 +3980,16 @@
         <v>158</v>
       </c>
       <c r="C153" t="n">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="D153" t="n">
-        <v>336</v>
+        <v>62</v>
       </c>
       <c r="E153" t="n">
         <v>3</v>
       </c>
       <c r="F153" t="n">
-        <v>19.428</v>
+        <v>4.036</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4060,16 +4000,16 @@
         <v>159</v>
       </c>
       <c r="C154" t="n">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="D154" t="n">
-        <v>198</v>
+        <v>258</v>
       </c>
       <c r="E154" t="n">
         <v>3</v>
       </c>
       <c r="F154" t="n">
-        <v>6.24</v>
+        <v>12.481</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4080,16 +4020,16 @@
         <v>160</v>
       </c>
       <c r="C155" t="n">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="D155" t="n">
-        <v>142</v>
+        <v>430</v>
       </c>
       <c r="E155" t="n">
         <v>3</v>
       </c>
       <c r="F155" t="n">
-        <v>5.012</v>
+        <v>34.446</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4100,16 +4040,16 @@
         <v>161</v>
       </c>
       <c r="C156" t="n">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="D156" t="n">
-        <v>338</v>
+        <v>448</v>
       </c>
       <c r="E156" t="n">
         <v>3</v>
       </c>
       <c r="F156" t="n">
-        <v>20.711</v>
+        <v>35.783</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4120,16 +4060,16 @@
         <v>162</v>
       </c>
       <c r="C157" t="n">
-        <v>76</v>
+        <v>724</v>
       </c>
       <c r="D157" t="n">
-        <v>128</v>
+        <v>1022</v>
       </c>
       <c r="E157" t="n">
         <v>3</v>
       </c>
       <c r="F157" t="n">
-        <v>3.743</v>
+        <v>136.086</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4140,16 +4080,16 @@
         <v>163</v>
       </c>
       <c r="C158" t="n">
-        <v>449</v>
+        <v>264</v>
       </c>
       <c r="D158" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="E158" t="n">
         <v>3</v>
       </c>
       <c r="F158" t="n">
-        <v>60.863</v>
+        <v>37.377</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4160,16 +4100,16 @@
         <v>164</v>
       </c>
       <c r="C159" t="n">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="D159" t="n">
-        <v>110</v>
+        <v>414</v>
       </c>
       <c r="E159" t="n">
         <v>3</v>
       </c>
       <c r="F159" t="n">
-        <v>2.796</v>
+        <v>32.422</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4180,16 +4120,16 @@
         <v>165</v>
       </c>
       <c r="C160" t="n">
-        <v>1242</v>
+        <v>284</v>
       </c>
       <c r="D160" t="n">
-        <v>1280</v>
+        <v>474</v>
       </c>
       <c r="E160" t="n">
         <v>3</v>
       </c>
       <c r="F160" t="n">
-        <v>188.592</v>
+        <v>41.38</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4200,16 +4140,16 @@
         <v>166</v>
       </c>
       <c r="C161" t="n">
-        <v>66</v>
+        <v>254</v>
       </c>
       <c r="D161" t="n">
-        <v>110</v>
+        <v>424</v>
       </c>
       <c r="E161" t="n">
         <v>3</v>
       </c>
       <c r="F161" t="n">
-        <v>2.74</v>
+        <v>31.802</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4220,16 +4160,16 @@
         <v>167</v>
       </c>
       <c r="C162" t="n">
-        <v>1225</v>
+        <v>748</v>
       </c>
       <c r="D162" t="n">
-        <v>1617</v>
+        <v>1022</v>
       </c>
       <c r="E162" t="n">
         <v>3</v>
       </c>
       <c r="F162" t="n">
-        <v>464.543</v>
+        <v>139.794</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4240,16 +4180,16 @@
         <v>168</v>
       </c>
       <c r="C163" t="n">
-        <v>828</v>
+        <v>36</v>
       </c>
       <c r="D163" t="n">
-        <v>712</v>
+        <v>62</v>
       </c>
       <c r="E163" t="n">
         <v>3</v>
       </c>
       <c r="F163" t="n">
-        <v>286.587</v>
+        <v>3.674</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4260,16 +4200,16 @@
         <v>169</v>
       </c>
       <c r="C164" t="n">
-        <v>998</v>
+        <v>220</v>
       </c>
       <c r="D164" t="n">
-        <v>1024</v>
+        <v>368</v>
       </c>
       <c r="E164" t="n">
         <v>3</v>
       </c>
       <c r="F164" t="n">
-        <v>340.212</v>
+        <v>23.318</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4280,16 +4220,16 @@
         <v>170</v>
       </c>
       <c r="C165" t="n">
-        <v>495</v>
+        <v>34</v>
       </c>
       <c r="D165" t="n">
-        <v>679</v>
+        <v>58</v>
       </c>
       <c r="E165" t="n">
         <v>3</v>
       </c>
       <c r="F165" t="n">
-        <v>90.23099999999999</v>
+        <v>3.403</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4300,16 +4240,16 @@
         <v>171</v>
       </c>
       <c r="C166" t="n">
-        <v>1280</v>
+        <v>44</v>
       </c>
       <c r="D166" t="n">
-        <v>1204</v>
+        <v>74</v>
       </c>
       <c r="E166" t="n">
         <v>3</v>
       </c>
       <c r="F166" t="n">
-        <v>262.143</v>
+        <v>4.199</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4320,16 +4260,16 @@
         <v>172</v>
       </c>
       <c r="C167" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D167" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E167" t="n">
         <v>3</v>
       </c>
       <c r="F167" t="n">
-        <v>8.105</v>
+        <v>8.593</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4340,16 +4280,16 @@
         <v>173</v>
       </c>
       <c r="C168" t="n">
-        <v>985</v>
+        <v>242</v>
       </c>
       <c r="D168" t="n">
-        <v>1280</v>
+        <v>406</v>
       </c>
       <c r="E168" t="n">
         <v>3</v>
       </c>
       <c r="F168" t="n">
-        <v>359.876</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4360,16 +4300,16 @@
         <v>174</v>
       </c>
       <c r="C169" t="n">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="D169" t="n">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="E169" t="n">
         <v>3</v>
       </c>
       <c r="F169" t="n">
-        <v>11.608</v>
+        <v>26.002</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4380,16 +4320,16 @@
         <v>175</v>
       </c>
       <c r="C170" t="n">
-        <v>156</v>
+        <v>254</v>
       </c>
       <c r="D170" t="n">
-        <v>262</v>
+        <v>422</v>
       </c>
       <c r="E170" t="n">
         <v>3</v>
       </c>
       <c r="F170" t="n">
-        <v>11.813</v>
+        <v>41.515</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4400,16 +4340,16 @@
         <v>176</v>
       </c>
       <c r="C171" t="n">
-        <v>1244</v>
+        <v>855</v>
       </c>
       <c r="D171" t="n">
-        <v>1280</v>
+        <v>1230</v>
       </c>
       <c r="E171" t="n">
         <v>3</v>
       </c>
       <c r="F171" t="n">
-        <v>347.676</v>
+        <v>137.824</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4420,16 +4360,16 @@
         <v>177</v>
       </c>
       <c r="C172" t="n">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="D172" t="n">
-        <v>130</v>
+        <v>322</v>
       </c>
       <c r="E172" t="n">
         <v>3</v>
       </c>
       <c r="F172" t="n">
-        <v>3.787</v>
+        <v>21.435</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4440,16 +4380,16 @@
         <v>178</v>
       </c>
       <c r="C173" t="n">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="D173" t="n">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="E173" t="n">
         <v>3</v>
       </c>
       <c r="F173" t="n">
-        <v>20.234</v>
+        <v>24.777</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4460,16 +4400,16 @@
         <v>179</v>
       </c>
       <c r="C174" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="D174" t="n">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="E174" t="n">
         <v>3</v>
       </c>
       <c r="F174" t="n">
-        <v>6.939</v>
+        <v>5.111</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4480,16 +4420,16 @@
         <v>180</v>
       </c>
       <c r="C175" t="n">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="D175" t="n">
-        <v>196</v>
+        <v>76</v>
       </c>
       <c r="E175" t="n">
         <v>3</v>
       </c>
       <c r="F175" t="n">
-        <v>7.357</v>
+        <v>5.187</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4500,16 +4440,16 @@
         <v>181</v>
       </c>
       <c r="C176" t="n">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="D176" t="n">
-        <v>130</v>
+        <v>302</v>
       </c>
       <c r="E176" t="n">
         <v>3</v>
       </c>
       <c r="F176" t="n">
-        <v>3.906</v>
+        <v>14.749</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4520,16 +4460,16 @@
         <v>182</v>
       </c>
       <c r="C177" t="n">
-        <v>1040</v>
+        <v>28</v>
       </c>
       <c r="D177" t="n">
-        <v>780</v>
+        <v>46</v>
       </c>
       <c r="E177" t="n">
         <v>3</v>
       </c>
       <c r="F177" t="n">
-        <v>109.431</v>
+        <v>2.612</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4540,16 +4480,16 @@
         <v>183</v>
       </c>
       <c r="C178" t="n">
-        <v>910</v>
+        <v>204</v>
       </c>
       <c r="D178" t="n">
-        <v>914</v>
+        <v>342</v>
       </c>
       <c r="E178" t="n">
         <v>3</v>
       </c>
       <c r="F178" t="n">
-        <v>187.139</v>
+        <v>22.587</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4560,16 +4500,16 @@
         <v>184</v>
       </c>
       <c r="C179" t="n">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D179" t="n">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="E179" t="n">
         <v>3</v>
       </c>
       <c r="F179" t="n">
-        <v>11.1</v>
+        <v>17.979</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4580,16 +4520,16 @@
         <v>185</v>
       </c>
       <c r="C180" t="n">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="D180" t="n">
-        <v>160</v>
+        <v>338</v>
       </c>
       <c r="E180" t="n">
         <v>3</v>
       </c>
       <c r="F180" t="n">
-        <v>4.237</v>
+        <v>25.168</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4600,416 +4540,16 @@
         <v>186</v>
       </c>
       <c r="C181" t="n">
-        <v>1128</v>
+        <v>584</v>
       </c>
       <c r="D181" t="n">
-        <v>1280</v>
+        <v>1022</v>
       </c>
       <c r="E181" t="n">
         <v>3</v>
       </c>
       <c r="F181" t="n">
-        <v>177.532</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182" t="s">
-        <v>6</v>
-      </c>
-      <c r="B182" t="s">
-        <v>187</v>
-      </c>
-      <c r="C182" t="n">
-        <v>96</v>
-      </c>
-      <c r="D182" t="n">
-        <v>162</v>
-      </c>
-      <c r="E182" t="n">
-        <v>3</v>
-      </c>
-      <c r="F182" t="n">
-        <v>4.791</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183" t="s">
-        <v>6</v>
-      </c>
-      <c r="B183" t="s">
-        <v>188</v>
-      </c>
-      <c r="C183" t="n">
-        <v>112</v>
-      </c>
-      <c r="D183" t="n">
-        <v>186</v>
-      </c>
-      <c r="E183" t="n">
-        <v>3</v>
-      </c>
-      <c r="F183" t="n">
-        <v>5.193</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184" t="s">
-        <v>6</v>
-      </c>
-      <c r="B184" t="s">
-        <v>189</v>
-      </c>
-      <c r="C184" t="n">
-        <v>178</v>
-      </c>
-      <c r="D184" t="n">
-        <v>296</v>
-      </c>
-      <c r="E184" t="n">
-        <v>3</v>
-      </c>
-      <c r="F184" t="n">
-        <v>13.971</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185" t="s">
-        <v>6</v>
-      </c>
-      <c r="B185" t="s">
-        <v>190</v>
-      </c>
-      <c r="C185" t="n">
-        <v>140</v>
-      </c>
-      <c r="D185" t="n">
-        <v>234</v>
-      </c>
-      <c r="E185" t="n">
-        <v>3</v>
-      </c>
-      <c r="F185" t="n">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186" t="s">
-        <v>6</v>
-      </c>
-      <c r="B186" t="s">
-        <v>191</v>
-      </c>
-      <c r="C186" t="n">
-        <v>652</v>
-      </c>
-      <c r="D186" t="n">
-        <v>893</v>
-      </c>
-      <c r="E186" t="n">
-        <v>3</v>
-      </c>
-      <c r="F186" t="n">
-        <v>116.954</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187" t="s">
-        <v>6</v>
-      </c>
-      <c r="B187" t="s">
-        <v>192</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1264</v>
-      </c>
-      <c r="D187" t="n">
-        <v>1280</v>
-      </c>
-      <c r="E187" t="n">
-        <v>3</v>
-      </c>
-      <c r="F187" t="n">
-        <v>420.712</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188" t="s">
-        <v>6</v>
-      </c>
-      <c r="B188" t="s">
-        <v>193</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1223</v>
-      </c>
-      <c r="D188" t="n">
-        <v>1280</v>
-      </c>
-      <c r="E188" t="n">
-        <v>3</v>
-      </c>
-      <c r="F188" t="n">
-        <v>431.84</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189" t="s">
-        <v>6</v>
-      </c>
-      <c r="B189" t="s">
-        <v>194</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1280</v>
-      </c>
-      <c r="D189" t="n">
-        <v>960</v>
-      </c>
-      <c r="E189" t="n">
-        <v>3</v>
-      </c>
-      <c r="F189" t="n">
-        <v>148.802</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190" t="s">
-        <v>6</v>
-      </c>
-      <c r="B190" t="s">
-        <v>195</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2521</v>
-      </c>
-      <c r="D190" t="n">
-        <v>3181</v>
-      </c>
-      <c r="E190" t="n">
-        <v>3</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1641.507</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191" t="s">
-        <v>6</v>
-      </c>
-      <c r="B191" t="s">
-        <v>196</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1725</v>
-      </c>
-      <c r="D191" t="n">
-        <v>1955</v>
-      </c>
-      <c r="E191" t="n">
-        <v>3</v>
-      </c>
-      <c r="F191" t="n">
-        <v>756.335</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192" t="s">
-        <v>6</v>
-      </c>
-      <c r="B192" t="s">
-        <v>197</v>
-      </c>
-      <c r="C192" t="n">
-        <v>202</v>
-      </c>
-      <c r="D192" t="n">
-        <v>336</v>
-      </c>
-      <c r="E192" t="n">
-        <v>3</v>
-      </c>
-      <c r="F192" t="n">
-        <v>18.489</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193" t="s">
-        <v>6</v>
-      </c>
-      <c r="B193" t="s">
-        <v>198</v>
-      </c>
-      <c r="C193" t="n">
-        <v>780</v>
-      </c>
-      <c r="D193" t="n">
-        <v>1040</v>
-      </c>
-      <c r="E193" t="n">
-        <v>3</v>
-      </c>
-      <c r="F193" t="n">
-        <v>100.83</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194" t="s">
-        <v>6</v>
-      </c>
-      <c r="B194" t="s">
-        <v>199</v>
-      </c>
-      <c r="C194" t="n">
-        <v>192</v>
-      </c>
-      <c r="D194" t="n">
-        <v>322</v>
-      </c>
-      <c r="E194" t="n">
-        <v>3</v>
-      </c>
-      <c r="F194" t="n">
-        <v>16.152</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195" t="s">
-        <v>6</v>
-      </c>
-      <c r="B195" t="s">
-        <v>200</v>
-      </c>
-      <c r="C195" t="n">
-        <v>958</v>
-      </c>
-      <c r="D195" t="n">
-        <v>1280</v>
-      </c>
-      <c r="E195" t="n">
-        <v>3</v>
-      </c>
-      <c r="F195" t="n">
-        <v>236.811</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196" t="s">
-        <v>6</v>
-      </c>
-      <c r="B196" t="s">
-        <v>201</v>
-      </c>
-      <c r="C196" t="n">
-        <v>960</v>
-      </c>
-      <c r="D196" t="n">
-        <v>1032</v>
-      </c>
-      <c r="E196" t="n">
-        <v>3</v>
-      </c>
-      <c r="F196" t="n">
-        <v>285.517</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197" t="s">
-        <v>6</v>
-      </c>
-      <c r="B197" t="s">
-        <v>202</v>
-      </c>
-      <c r="C197" t="n">
-        <v>174</v>
-      </c>
-      <c r="D197" t="n">
-        <v>290</v>
-      </c>
-      <c r="E197" t="n">
-        <v>3</v>
-      </c>
-      <c r="F197" t="n">
-        <v>14.795</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198" t="s">
-        <v>6</v>
-      </c>
-      <c r="B198" t="s">
-        <v>203</v>
-      </c>
-      <c r="C198" t="n">
-        <v>66</v>
-      </c>
-      <c r="D198" t="n">
-        <v>110</v>
-      </c>
-      <c r="E198" t="n">
-        <v>3</v>
-      </c>
-      <c r="F198" t="n">
-        <v>2.852</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199" t="s">
-        <v>6</v>
-      </c>
-      <c r="B199" t="s">
-        <v>204</v>
-      </c>
-      <c r="C199" t="n">
-        <v>152</v>
-      </c>
-      <c r="D199" t="n">
-        <v>256</v>
-      </c>
-      <c r="E199" t="n">
-        <v>3</v>
-      </c>
-      <c r="F199" t="n">
-        <v>13.216</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200" t="s">
-        <v>6</v>
-      </c>
-      <c r="B200" t="s">
-        <v>205</v>
-      </c>
-      <c r="C200" t="n">
-        <v>156</v>
-      </c>
-      <c r="D200" t="n">
-        <v>260</v>
-      </c>
-      <c r="E200" t="n">
-        <v>3</v>
-      </c>
-      <c r="F200" t="n">
-        <v>12.499</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201" t="s">
-        <v>6</v>
-      </c>
-      <c r="B201" t="s">
-        <v>206</v>
-      </c>
-      <c r="C201" t="n">
-        <v>176</v>
-      </c>
-      <c r="D201" t="n">
-        <v>296</v>
-      </c>
-      <c r="E201" t="n">
-        <v>3</v>
-      </c>
-      <c r="F201" t="n">
-        <v>13.419</v>
+        <v>91.958</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/UNHAS/UnhasImagesHealthyCropped.xlsx
+++ b/Datasets/UNHAS/UnhasImagesHealthyCropped.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>folder</t>
   </si>
@@ -35,547 +35,634 @@
     <t>filesize(KB)</t>
   </si>
   <si>
+    <t>17-03-2021</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.28.40.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.16.08 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.28.38.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.16.12 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-24 at 11.53.24.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.16.10 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.15.06(1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.27.05.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.28.40 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 09.10.52 (2).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.16.13 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.23.50.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.24.45.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.27.06 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.16.11 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.16.09 (2).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.16.09 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.28.39 (2).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.16.12 (2).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.15.06.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.15.05.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.23.50 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.50.11.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.50.12.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 09.10.52 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.16.09.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.28.39 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 09.10.51.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.24.45 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.50.13.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 09.10.52.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 09.11.49.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-17 at 08.27.06.jpeg</t>
+  </si>
+  <si>
     <t>UnhasImagesCataractsCropped</t>
   </si>
   <si>
+    <t>WhatsApp Image 2021-03-03 at 21.32.59.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6818.JPG</t>
+  </si>
+  <si>
+    <t>Pasien Katarak.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6982.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6922.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.56 (1).jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6920.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.58.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6962.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_1580.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7096.JPG</t>
+  </si>
+  <si>
+    <t>R_image049.png</t>
+  </si>
+  <si>
+    <t>R_IMG_6876.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7043.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.57 (2).jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_7053.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.33.01.jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_7039.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6964.JPG</t>
+  </si>
+  <si>
+    <t>R_image023.png</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.54 (1).jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_7028.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6784.JPG</t>
+  </si>
+  <si>
+    <t>L_image077.png</t>
+  </si>
+  <si>
+    <t>L_IMG_6816.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7088.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6833.JPG</t>
+  </si>
+  <si>
     <t>R_Hamdana.JPG</t>
   </si>
   <si>
+    <t>R_IMG_6832.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7014.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1588.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7048.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6966.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7079.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1633.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.01.47.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6980.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.08.46.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.04.32 (1).jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_6909.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6914.JPG</t>
+  </si>
+  <si>
+    <t>L_18,1.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1618.JPG</t>
+  </si>
+  <si>
+    <t>R_Nurung.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7094.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.10.03.jpeg</t>
+  </si>
+  <si>
+    <t>R_image017.png</t>
+  </si>
+  <si>
+    <t>R_image067.png</t>
+  </si>
+  <si>
+    <t>R_IMG_1624.JPG</t>
+  </si>
+  <si>
+    <t>L_image027.png</t>
+  </si>
+  <si>
+    <t>L_IMG_6803.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6992.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7083.JPG</t>
+  </si>
+  <si>
+    <t>L_image073.png</t>
+  </si>
+  <si>
+    <t>L_IMG_7105.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6988.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.55 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.05.13.jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_6871.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6788.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.04.32.jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_6786.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6810.JPG</t>
+  </si>
+  <si>
+    <t>R_image011.png</t>
+  </si>
+  <si>
+    <t>R_IMG_7100.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.53 (3).jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_7021.JPG</t>
+  </si>
+  <si>
+    <t>R_Burhanuddin.JPG</t>
+  </si>
+  <si>
+    <t>L_Daeng Marala.JPG</t>
+  </si>
+  <si>
+    <t>L_image069.png</t>
+  </si>
+  <si>
+    <t>L_Amri.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6781.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6868.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6852.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6977.JPG</t>
+  </si>
+  <si>
+    <t>L_Sulaeman.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6960.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.57 (4).jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_1643.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.10.32.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6829.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.57 (3).jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_1621.JPG</t>
+  </si>
+  <si>
+    <t>L_image079.png</t>
+  </si>
+  <si>
+    <t>R_image085.png</t>
+  </si>
+  <si>
+    <t>L_Dege dg. Mangun.JPG</t>
+  </si>
+  <si>
+    <t>L_image019.png</t>
+  </si>
+  <si>
+    <t>R_IMG_6777.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7027.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.08.13.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6986.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1602.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6880.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7059.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6861.JPG</t>
+  </si>
+  <si>
+    <t>R_Paulus P.JPG</t>
+  </si>
+  <si>
+    <t>L_image063.png</t>
+  </si>
+  <si>
+    <t>R_IMG_7012.JPG</t>
+  </si>
+  <si>
+    <t>R_image001.png</t>
+  </si>
+  <si>
+    <t>R_IMG_1597.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6889.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.08.46 (2).jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6917.JPG</t>
+  </si>
+  <si>
+    <t>L_image071.png</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.14.51.jpeg</t>
+  </si>
+  <si>
     <t>L_IMG_1581.JPG</t>
   </si>
   <si>
+    <t>L_IMG_7070.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.57.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_7065.JPG</t>
+  </si>
+  <si>
+    <t>R_image005.png</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.33.02.jpeg</t>
+  </si>
+  <si>
+    <t>R_image035.png</t>
+  </si>
+  <si>
+    <t>L_IMG_7003.JPG</t>
+  </si>
+  <si>
     <t>WhatsApp Image 2021-03-03 at 20.55.36.jpeg</t>
   </si>
   <si>
-    <t>R_IMG_6852.JPG</t>
+    <t>L_IMG_6799.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6973.JPG</t>
+  </si>
+  <si>
+    <t>L_Sarifuddin Dg. Gassing.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_1608.JPG</t>
+  </si>
+  <si>
+    <t>L_image051.png</t>
+  </si>
+  <si>
+    <t>R_IMG_1594.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_7069.JPG</t>
+  </si>
+  <si>
+    <t>L_image043.png</t>
+  </si>
+  <si>
+    <t>R_IMG_6883.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6999.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.55.jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.08.46 (1).jpeg</t>
+  </si>
+  <si>
+    <t>R_image037.png</t>
+  </si>
+  <si>
+    <t>R_IMG_6976.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6853.JPG</t>
   </si>
   <si>
     <t>WhatsApp Image 2021-03-03 at 21.16.10.jpeg</t>
   </si>
   <si>
-    <t>WhatsApp Image 2021-03-03 at 21.08.46 (1).jpeg</t>
-  </si>
-  <si>
-    <t>R_IMG_6876.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6999.JPG</t>
+    <t>WhatsApp Image 2021-03-03 at 20.51.56 (2).jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6995.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6886.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6778.JPG</t>
+  </si>
+  <si>
+    <t>L_image075.png</t>
+  </si>
+  <si>
+    <t>L_image065.png</t>
+  </si>
+  <si>
+    <t>R_IMG_6901.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1636.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7033.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.06.10.jpeg</t>
+  </si>
+  <si>
+    <t>R_image045.png</t>
+  </si>
+  <si>
+    <t>R_IMG_7087.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.06.10 (1).jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_7057.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6843.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.56.jpeg</t>
+  </si>
+  <si>
+    <t>L_Vera E Polnaya.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_6972.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.33.00.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_7005.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6984.JPG</t>
+  </si>
+  <si>
+    <t>R_Muhammad Arfah.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7085.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1610.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7023.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.14.52.jpeg</t>
+  </si>
+  <si>
+    <t>L_IMG_6827.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_1585.JPG</t>
+  </si>
+  <si>
+    <t>L_Amirullah.JPG</t>
   </si>
   <si>
     <t>WhatsApp Image 2021-03-03 at 20.51.54 (2).jpeg</t>
   </si>
   <si>
-    <t>R_IMG_6976.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_1588.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6980.JPG</t>
-  </si>
-  <si>
-    <t>R_image017.png</t>
-  </si>
-  <si>
-    <t>L_image073.png</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.56 (1).jpeg</t>
-  </si>
-  <si>
-    <t>R_image085.png</t>
-  </si>
-  <si>
-    <t>R_IMG_7069.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_7021.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_7100.JPG</t>
-  </si>
-  <si>
-    <t>R_image035.png</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.14.51.jpeg</t>
-  </si>
-  <si>
-    <t>R_IMG_6886.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6889.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6833.JPG</t>
-  </si>
-  <si>
-    <t>L_18,1.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.57 (3).jpeg</t>
-  </si>
-  <si>
-    <t>L_IMG_6992.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_1597.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_7014.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6995.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_1602.JPG</t>
-  </si>
-  <si>
-    <t>L_image077.png</t>
-  </si>
-  <si>
-    <t>L_image063.png</t>
-  </si>
-  <si>
-    <t>L_Amri.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6984.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6909.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_7079.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_1610.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6922.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6799.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6883.JPG</t>
-  </si>
-  <si>
-    <t>R_image037.png</t>
+    <t>R_IMG_6841.JPG</t>
+  </si>
+  <si>
+    <t>L_IMG_7080.JPG</t>
+  </si>
+  <si>
+    <t>R_IMG_6897.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 21.00.59.jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_7036.JPG</t>
+  </si>
+  <si>
+    <t>R_image081.png</t>
+  </si>
+  <si>
+    <t>L_image025.png</t>
+  </si>
+  <si>
+    <t>L_IMG_6958.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.57 (1).jpeg</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.53 (1).jpeg</t>
+  </si>
+  <si>
+    <t>R_IMG_6814.JPG</t>
+  </si>
+  <si>
+    <t>WhatsApp Image 2021-03-03 at 20.51.54.jpeg</t>
   </si>
   <si>
     <t>R_Sana Balubita.JPG</t>
   </si>
   <si>
-    <t>L_IMG_7039.JPG</t>
-  </si>
-  <si>
-    <t>L_image027.png</t>
-  </si>
-  <si>
-    <t>R_IMG_6818.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.54 (1).jpeg</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.57.jpeg</t>
-  </si>
-  <si>
-    <t>R_IMG_6917.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.56 (2).jpeg</t>
-  </si>
-  <si>
-    <t>L_IMG_7033.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6973.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_7036.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_1594.JPG</t>
-  </si>
-  <si>
-    <t>L_Amirullah.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.01.47.jpeg</t>
-  </si>
-  <si>
-    <t>L_IMG_7053.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_1580.JPG</t>
-  </si>
-  <si>
-    <t>R_Muhammad Arfah.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.58.jpeg</t>
-  </si>
-  <si>
-    <t>L_Sulaeman.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.56.jpeg</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.06.10 (1).jpeg</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.57 (2).jpeg</t>
-  </si>
-  <si>
-    <t>R_IMG_1585.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_7048.JPG</t>
-  </si>
-  <si>
-    <t>R_Burhanuddin.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.55 (1).jpeg</t>
-  </si>
-  <si>
-    <t>R_Nurung.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6880.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.05.13.jpeg</t>
-  </si>
-  <si>
-    <t>L_IMG_6778.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.10.03.jpeg</t>
-  </si>
-  <si>
-    <t>R_IMG_6814.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.33.00.jpeg</t>
-  </si>
-  <si>
-    <t>L_IMG_6960.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_7083.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_1608.JPG</t>
-  </si>
-  <si>
-    <t>L_Imran.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6841.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_7059.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_1636.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6832.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_7096.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_1633.JPG</t>
-  </si>
-  <si>
-    <t>R_image049.png</t>
-  </si>
-  <si>
-    <t>R_image067.png</t>
-  </si>
-  <si>
-    <t>L_H. Nganro.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6781.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6914.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_7087.JPG</t>
-  </si>
-  <si>
-    <t>L_image043.png</t>
-  </si>
-  <si>
-    <t>L_IMG_6871.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_7005.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6972.JPG</t>
-  </si>
-  <si>
-    <t>L_image019.png</t>
-  </si>
-  <si>
-    <t>R_IMG_7094.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.08.46.jpeg</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.32.59.jpeg</t>
-  </si>
-  <si>
-    <t>L_Daeng Marala.JPG</t>
-  </si>
-  <si>
-    <t>L_Dege dg. Mangun.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.53 (3).jpeg</t>
-  </si>
-  <si>
-    <t>L_image071.png</t>
-  </si>
-  <si>
-    <t>R_Paulus P.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_7043.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.54.jpeg</t>
-  </si>
-  <si>
-    <t>L_Vera E Polnaya.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6816.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_7085.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.04.32 (1).jpeg</t>
-  </si>
-  <si>
-    <t>Pasien Katarak.jpeg</t>
-  </si>
-  <si>
-    <t>L_IMG_6988.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6803.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_7088.JPG</t>
-  </si>
-  <si>
-    <t>L_image065.png</t>
-  </si>
-  <si>
-    <t>L_IMG_7027.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_7003.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_7105.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_7023.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.08.13.jpeg</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.08.46 (2).jpeg</t>
-  </si>
-  <si>
-    <t>R_IMG_6810.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6829.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.04.32.jpeg</t>
-  </si>
-  <si>
-    <t>R_IMG_7065.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6786.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6986.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6982.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.10.32.jpeg</t>
+    <t>WhatsApp Image 2021-03-03 at 20.51.53 (4).jpeg</t>
   </si>
   <si>
     <t>L_Sitti Hapsah.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6897.JPG</t>
-  </si>
-  <si>
-    <t>L_image069.png</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.55.jpeg</t>
-  </si>
-  <si>
-    <t>R_IMG_6861.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.14.52.jpeg</t>
-  </si>
-  <si>
-    <t>L_IMG_1621.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_1583.JPG</t>
-  </si>
-  <si>
-    <t>L_image075.png</t>
-  </si>
-  <si>
-    <t>R_IMG_6901.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6958.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.33.02.jpeg</t>
-  </si>
-  <si>
-    <t>L_IMG_6843.JPG</t>
-  </si>
-  <si>
-    <t>L_image079.png</t>
-  </si>
-  <si>
-    <t>L_IMG_7080.JPG</t>
-  </si>
-  <si>
-    <t>L_Sarifuddin Dg. Gassing.JPG</t>
-  </si>
-  <si>
-    <t>L_image051.png</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.57 (4).jpeg</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.00.59.jpeg</t>
-  </si>
-  <si>
-    <t>L_IMG_6784.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_7012.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.33.01.jpeg</t>
-  </si>
-  <si>
-    <t>R_image045.png</t>
-  </si>
-  <si>
-    <t>L_Ny Siti Hajar.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6827.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6964.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.53 (4).jpeg</t>
-  </si>
-  <si>
-    <t>L_IMG_7070.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6962.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6966.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6920.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.57 (1).jpeg</t>
-  </si>
-  <si>
-    <t>R_image005.png</t>
-  </si>
-  <si>
-    <t>R_IMG_7028.JPG</t>
-  </si>
-  <si>
-    <t>R_image023.png</t>
-  </si>
-  <si>
-    <t>R_image001.png</t>
-  </si>
-  <si>
-    <t>L_IMG_1589.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_7057.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6853.JPG</t>
-  </si>
-  <si>
-    <t>L_IMG_6977.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 21.06.10.jpeg</t>
-  </si>
-  <si>
-    <t>R_IMG_6777.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6868.JPG</t>
-  </si>
-  <si>
-    <t>R_image081.png</t>
-  </si>
-  <si>
-    <t>L_image025.png</t>
-  </si>
-  <si>
-    <t>R_IMG_1624.JPG</t>
-  </si>
-  <si>
-    <t>R_image011.png</t>
-  </si>
-  <si>
-    <t>R_IMG_1618.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_6788.JPG</t>
-  </si>
-  <si>
-    <t>R_IMG_1643.JPG</t>
-  </si>
-  <si>
-    <t>WhatsApp Image 2021-03-03 at 20.51.53 (1).jpeg</t>
   </si>
 </sst>
 </file>
@@ -924,7 +1011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -960,16 +1047,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>188</v>
+        <v>1280</v>
       </c>
       <c r="D2" t="n">
-        <v>316</v>
+        <v>988</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>15.994</v>
+        <v>161.712</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -980,16 +1067,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>186</v>
+        <v>984</v>
       </c>
       <c r="D3" t="n">
-        <v>310</v>
+        <v>1045</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>18.289</v>
+        <v>550.775</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1000,16 +1087,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>682</v>
+        <v>227</v>
       </c>
       <c r="D4" t="n">
-        <v>788</v>
+        <v>324</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>55.806</v>
+        <v>42.335</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1020,16 +1107,16 @@
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="D5" t="n">
-        <v>428</v>
+        <v>300</v>
       </c>
       <c r="E5" t="n">
         <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>31.208</v>
+        <v>50.687</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1040,16 +1127,16 @@
         <v>11</v>
       </c>
       <c r="C6" t="n">
-        <v>762</v>
+        <v>992</v>
       </c>
       <c r="D6" t="n">
-        <v>750</v>
+        <v>1280</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>72.911</v>
+        <v>130.944</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1060,16 +1147,16 @@
         <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>762</v>
+        <v>570</v>
       </c>
       <c r="D7" t="n">
-        <v>870</v>
+        <v>752</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>92.39</v>
+        <v>49.937</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1080,16 +1167,16 @@
         <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>250</v>
+        <v>875</v>
       </c>
       <c r="D8" t="n">
-        <v>416</v>
+        <v>1008</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>31.836</v>
+        <v>591.447</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1100,16 +1187,16 @@
         <v>14</v>
       </c>
       <c r="C9" t="n">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D9" t="n">
-        <v>360</v>
+        <v>678</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>27.468</v>
+        <v>49.048</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1120,16 +1207,16 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>656</v>
+        <v>397</v>
       </c>
       <c r="D10" t="n">
-        <v>1022</v>
+        <v>387</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>107.395</v>
+        <v>71.782</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1140,16 +1227,16 @@
         <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="D11" t="n">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>32.666</v>
+        <v>30.774</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1160,16 +1247,16 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>216</v>
+        <v>1071</v>
       </c>
       <c r="D12" t="n">
-        <v>362</v>
+        <v>1203</v>
       </c>
       <c r="E12" t="n">
         <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>25.867</v>
+        <v>891.5410000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1180,16 +1267,16 @@
         <v>18</v>
       </c>
       <c r="C13" t="n">
-        <v>236</v>
+        <v>452</v>
       </c>
       <c r="D13" t="n">
-        <v>392</v>
+        <v>679</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>25.603</v>
+        <v>40.751</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1200,16 +1287,16 @@
         <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>46</v>
+        <v>404</v>
       </c>
       <c r="D14" t="n">
-        <v>78</v>
+        <v>635</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>5.783</v>
+        <v>88.03</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1220,16 +1307,16 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>553</v>
       </c>
       <c r="D15" t="n">
-        <v>68</v>
+        <v>680</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>4.997</v>
+        <v>132.667</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1240,16 +1327,16 @@
         <v>21</v>
       </c>
       <c r="C16" t="n">
-        <v>766</v>
+        <v>320</v>
       </c>
       <c r="D16" t="n">
-        <v>977</v>
+        <v>458</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>161.316</v>
+        <v>62.566</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1260,16 +1347,16 @@
         <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="D17" t="n">
-        <v>68</v>
+        <v>340</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>4.248</v>
+        <v>65.578</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1280,16 +1367,16 @@
         <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>218</v>
+        <v>315</v>
       </c>
       <c r="D18" t="n">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>22.357</v>
+        <v>62.421</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1300,16 +1387,16 @@
         <v>24</v>
       </c>
       <c r="C19" t="n">
-        <v>194</v>
+        <v>318</v>
       </c>
       <c r="D19" t="n">
-        <v>326</v>
+        <v>420</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>21.378</v>
+        <v>54.443</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1320,16 +1407,16 @@
         <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>216</v>
+        <v>779</v>
       </c>
       <c r="D20" t="n">
-        <v>360</v>
+        <v>1280</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
       </c>
       <c r="F20" t="n">
-        <v>22.824</v>
+        <v>64.08</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1340,16 +1427,16 @@
         <v>26</v>
       </c>
       <c r="C21" t="n">
-        <v>38</v>
+        <v>875</v>
       </c>
       <c r="D21" t="n">
-        <v>66</v>
+        <v>1008</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>4.901</v>
+        <v>591.447</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1360,16 +1447,16 @@
         <v>27</v>
       </c>
       <c r="C22" t="n">
-        <v>852</v>
+        <v>635</v>
       </c>
       <c r="D22" t="n">
-        <v>1280</v>
+        <v>756</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>134.641</v>
+        <v>54.457</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1380,16 +1467,16 @@
         <v>28</v>
       </c>
       <c r="C23" t="n">
-        <v>252</v>
+        <v>505</v>
       </c>
       <c r="D23" t="n">
-        <v>422</v>
+        <v>675</v>
       </c>
       <c r="E23" t="n">
         <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>30.511</v>
+        <v>49.168</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1400,16 +1487,16 @@
         <v>29</v>
       </c>
       <c r="C24" t="n">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D24" t="n">
-        <v>478</v>
+        <v>372</v>
       </c>
       <c r="E24" t="n">
         <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>38.713</v>
+        <v>58.977</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1420,16 +1507,16 @@
         <v>30</v>
       </c>
       <c r="C25" t="n">
-        <v>196</v>
+        <v>902</v>
       </c>
       <c r="D25" t="n">
-        <v>328</v>
+        <v>1280</v>
       </c>
       <c r="E25" t="n">
         <v>3</v>
       </c>
       <c r="F25" t="n">
-        <v>22.738</v>
+        <v>182.071</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1440,16 +1527,16 @@
         <v>31</v>
       </c>
       <c r="C26" t="n">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="D26" t="n">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="E26" t="n">
         <v>3</v>
       </c>
       <c r="F26" t="n">
-        <v>9.737</v>
+        <v>5.322</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1460,16 +1547,16 @@
         <v>32</v>
       </c>
       <c r="C27" t="n">
-        <v>685</v>
+        <v>922</v>
       </c>
       <c r="D27" t="n">
-        <v>1022</v>
+        <v>1232</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>135.339</v>
+        <v>97.88</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1480,16 +1567,16 @@
         <v>33</v>
       </c>
       <c r="C28" t="n">
-        <v>216</v>
+        <v>765</v>
       </c>
       <c r="D28" t="n">
-        <v>360</v>
+        <v>847</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>26.262</v>
+        <v>67.232</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1500,16 +1587,16 @@
         <v>34</v>
       </c>
       <c r="C29" t="n">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="D29" t="n">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>30.537</v>
+        <v>38.765</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1520,16 +1607,16 @@
         <v>35</v>
       </c>
       <c r="C30" t="n">
-        <v>234</v>
+        <v>553</v>
       </c>
       <c r="D30" t="n">
-        <v>390</v>
+        <v>680</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>29.085</v>
+        <v>132.667</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1540,16 +1627,16 @@
         <v>36</v>
       </c>
       <c r="C31" t="n">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c r="D31" t="n">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
       </c>
       <c r="F31" t="n">
-        <v>21.539</v>
+        <v>70.26600000000001</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1560,16 +1647,16 @@
         <v>37</v>
       </c>
       <c r="C32" t="n">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="D32" t="n">
-        <v>390</v>
+        <v>283</v>
       </c>
       <c r="E32" t="n">
         <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>23.338</v>
+        <v>15.653</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1580,16 +1667,16 @@
         <v>38</v>
       </c>
       <c r="C33" t="n">
-        <v>52</v>
+        <v>263</v>
       </c>
       <c r="D33" t="n">
-        <v>86</v>
+        <v>354</v>
       </c>
       <c r="E33" t="n">
         <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>7.168</v>
+        <v>37.537</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1600,307 +1687,307 @@
         <v>39</v>
       </c>
       <c r="C34" t="n">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="D34" t="n">
-        <v>64</v>
+        <v>680</v>
       </c>
       <c r="E34" t="n">
         <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>4.338</v>
+        <v>30.733</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" t="n">
-        <v>164</v>
+        <v>960</v>
       </c>
       <c r="D35" t="n">
-        <v>272</v>
+        <v>1280</v>
       </c>
       <c r="E35" t="n">
         <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>12.589</v>
+        <v>104.775</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="n">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="D36" t="n">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="E36" t="n">
         <v>3</v>
       </c>
       <c r="F36" t="n">
-        <v>29.205</v>
+        <v>16.846</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="n">
-        <v>198</v>
+        <v>1157</v>
       </c>
       <c r="D37" t="n">
-        <v>332</v>
+        <v>1043</v>
       </c>
       <c r="E37" t="n">
         <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>22.571</v>
+        <v>350.679</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="n">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c r="D38" t="n">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="E38" t="n">
         <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>23.168</v>
+        <v>37.493</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C39" t="n">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="D39" t="n">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="E39" t="n">
         <v>3</v>
       </c>
       <c r="F39" t="n">
-        <v>25.952</v>
+        <v>21.322</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C40" t="n">
-        <v>202</v>
+        <v>766</v>
       </c>
       <c r="D40" t="n">
-        <v>338</v>
+        <v>977</v>
       </c>
       <c r="E40" t="n">
         <v>3</v>
       </c>
       <c r="F40" t="n">
-        <v>21.322</v>
+        <v>161.316</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="n">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="D41" t="n">
-        <v>318</v>
+        <v>424</v>
       </c>
       <c r="E41" t="n">
         <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>21.492</v>
+        <v>31.802</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" t="n">
-        <v>218</v>
+        <v>638</v>
       </c>
       <c r="D42" t="n">
-        <v>364</v>
+        <v>1022</v>
       </c>
       <c r="E42" t="n">
         <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>22.222</v>
+        <v>85.489</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="D43" t="n">
-        <v>54</v>
+        <v>414</v>
       </c>
       <c r="E43" t="n">
         <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>3.105</v>
+        <v>32.422</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" t="n">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="D44" t="n">
-        <v>292</v>
+        <v>444</v>
       </c>
       <c r="E44" t="n">
         <v>3</v>
       </c>
       <c r="F44" t="n">
-        <v>17.571</v>
+        <v>36.448</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" t="n">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="D45" t="n">
-        <v>394</v>
+        <v>286</v>
       </c>
       <c r="E45" t="n">
         <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>30.85</v>
+        <v>15.253</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D46" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E46" t="n">
         <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>4.023</v>
+        <v>3.78</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" t="n">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="D47" t="n">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="E47" t="n">
         <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>16.846</v>
+        <v>31.836</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" t="n">
-        <v>740</v>
+        <v>228</v>
       </c>
       <c r="D48" t="n">
-        <v>1022</v>
+        <v>382</v>
       </c>
       <c r="E48" t="n">
         <v>3</v>
       </c>
       <c r="F48" t="n">
-        <v>131.453</v>
+        <v>25.753</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49" t="n">
-        <v>703</v>
+        <v>748</v>
       </c>
       <c r="D49" t="n">
         <v>1022</v>
@@ -1909,215 +1996,215 @@
         <v>3</v>
       </c>
       <c r="F49" t="n">
-        <v>175.409</v>
+        <v>139.794</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" t="n">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D50" t="n">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="E50" t="n">
         <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>24.298</v>
+        <v>21.648</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51" t="n">
-        <v>577</v>
+        <v>960</v>
       </c>
       <c r="D51" t="n">
-        <v>1022</v>
+        <v>1280</v>
       </c>
       <c r="E51" t="n">
         <v>3</v>
       </c>
       <c r="F51" t="n">
-        <v>122.394</v>
+        <v>118.554</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" t="n">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D52" t="n">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="E52" t="n">
         <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>30.662</v>
+        <v>30.85</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" t="n">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D53" t="n">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="E53" t="n">
         <v>3</v>
       </c>
       <c r="F53" t="n">
-        <v>43.025</v>
+        <v>35.783</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" t="n">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
-        <v>394</v>
+        <v>58</v>
       </c>
       <c r="E54" t="n">
         <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>29.536</v>
+        <v>3.403</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" t="n">
-        <v>118</v>
+        <v>740</v>
       </c>
       <c r="D55" t="n">
-        <v>198</v>
+        <v>1022</v>
       </c>
       <c r="E55" t="n">
         <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>8.752000000000001</v>
+        <v>131.453</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" t="n">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="D56" t="n">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="E56" t="n">
         <v>3</v>
       </c>
       <c r="F56" t="n">
-        <v>20.958</v>
+        <v>23.318</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57" t="n">
-        <v>1280</v>
+        <v>190</v>
       </c>
       <c r="D57" t="n">
-        <v>576</v>
+        <v>316</v>
       </c>
       <c r="E57" t="n">
         <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>28.619</v>
+        <v>19.942</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" t="n">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="D58" t="n">
-        <v>336</v>
+        <v>86</v>
       </c>
       <c r="E58" t="n">
         <v>3</v>
       </c>
       <c r="F58" t="n">
-        <v>21.648</v>
+        <v>7.168</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C59" t="n">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="D59" t="n">
-        <v>444</v>
+        <v>362</v>
       </c>
       <c r="E59" t="n">
         <v>3</v>
       </c>
       <c r="F59" t="n">
-        <v>36.448</v>
+        <v>27.548</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C60" t="n">
         <v>170</v>
@@ -2129,2427 +2216,2987 @@
         <v>3</v>
       </c>
       <c r="F60" t="n">
-        <v>14.089</v>
+        <v>15.222</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C61" t="n">
-        <v>638</v>
+        <v>196</v>
       </c>
       <c r="D61" t="n">
-        <v>1022</v>
+        <v>328</v>
       </c>
       <c r="E61" t="n">
         <v>3</v>
       </c>
       <c r="F61" t="n">
-        <v>85.489</v>
+        <v>22.738</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62" t="n">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D62" t="n">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="E62" t="n">
         <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>17.224</v>
+        <v>15.994</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C63" t="n">
-        <v>717</v>
+        <v>260</v>
       </c>
       <c r="D63" t="n">
-        <v>1022</v>
+        <v>432</v>
       </c>
       <c r="E63" t="n">
         <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>136.974</v>
+        <v>35.191</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C64" t="n">
-        <v>855</v>
+        <v>234</v>
       </c>
       <c r="D64" t="n">
-        <v>1230</v>
+        <v>390</v>
       </c>
       <c r="E64" t="n">
         <v>3</v>
       </c>
       <c r="F64" t="n">
-        <v>137.824</v>
+        <v>29.085</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C65" t="n">
-        <v>748</v>
+        <v>216</v>
       </c>
       <c r="D65" t="n">
-        <v>1022</v>
+        <v>362</v>
       </c>
       <c r="E65" t="n">
         <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>139.794</v>
+        <v>25.867</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" t="n">
-        <v>162</v>
+        <v>246</v>
       </c>
       <c r="D66" t="n">
-        <v>270</v>
+        <v>410</v>
       </c>
       <c r="E66" t="n">
         <v>3</v>
       </c>
       <c r="F66" t="n">
-        <v>13.818</v>
+        <v>26.419</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67" t="n">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="D67" t="n">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="E67" t="n">
         <v>3</v>
       </c>
       <c r="F67" t="n">
-        <v>26.419</v>
+        <v>41.38</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C68" t="n">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="D68" t="n">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="E68" t="n">
         <v>3</v>
       </c>
       <c r="F68" t="n">
-        <v>15.013</v>
+        <v>23.168</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C69" t="n">
-        <v>586</v>
+        <v>166</v>
       </c>
       <c r="D69" t="n">
-        <v>1022</v>
+        <v>278</v>
       </c>
       <c r="E69" t="n">
         <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>121.747</v>
+        <v>14.816</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C70" t="n">
-        <v>172</v>
+        <v>1280</v>
       </c>
       <c r="D70" t="n">
-        <v>288</v>
+        <v>576</v>
       </c>
       <c r="E70" t="n">
         <v>3</v>
       </c>
       <c r="F70" t="n">
-        <v>14.737</v>
+        <v>28.619</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C71" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D71" t="n">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="E71" t="n">
         <v>3</v>
       </c>
       <c r="F71" t="n">
-        <v>24.922</v>
+        <v>25.603</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C72" t="n">
-        <v>959</v>
+        <v>762</v>
       </c>
       <c r="D72" t="n">
-        <v>1280</v>
+        <v>918</v>
       </c>
       <c r="E72" t="n">
         <v>3</v>
       </c>
       <c r="F72" t="n">
-        <v>108.547</v>
+        <v>103.721</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C73" t="n">
-        <v>142</v>
+        <v>841</v>
       </c>
       <c r="D73" t="n">
-        <v>236</v>
+        <v>1280</v>
       </c>
       <c r="E73" t="n">
         <v>3</v>
       </c>
       <c r="F73" t="n">
-        <v>13.094</v>
+        <v>115.487</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C74" t="n">
-        <v>959</v>
+        <v>198</v>
       </c>
       <c r="D74" t="n">
-        <v>1280</v>
+        <v>332</v>
       </c>
       <c r="E74" t="n">
         <v>3</v>
       </c>
       <c r="F74" t="n">
-        <v>75.893</v>
+        <v>22.571</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C75" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D75" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E75" t="n">
         <v>3</v>
       </c>
       <c r="F75" t="n">
-        <v>21.978</v>
+        <v>31.254</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C76" t="n">
-        <v>1280</v>
+        <v>124</v>
       </c>
       <c r="D76" t="n">
-        <v>960</v>
+        <v>206</v>
       </c>
       <c r="E76" t="n">
         <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>124.783</v>
+        <v>9.737</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C77" t="n">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="D77" t="n">
-        <v>450</v>
+        <v>342</v>
       </c>
       <c r="E77" t="n">
         <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>41.825</v>
+        <v>22.587</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C78" t="n">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="D78" t="n">
-        <v>392</v>
+        <v>288</v>
       </c>
       <c r="E78" t="n">
         <v>3</v>
       </c>
       <c r="F78" t="n">
-        <v>28.018</v>
+        <v>14.737</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C79" t="n">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="D79" t="n">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="E79" t="n">
         <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>31.976</v>
+        <v>27.785</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C80" t="n">
-        <v>166</v>
+        <v>959</v>
       </c>
       <c r="D80" t="n">
-        <v>278</v>
+        <v>1280</v>
       </c>
       <c r="E80" t="n">
         <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>13.712</v>
+        <v>75.893</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C81" t="n">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="D81" t="n">
-        <v>376</v>
+        <v>78</v>
       </c>
       <c r="E81" t="n">
         <v>3</v>
       </c>
       <c r="F81" t="n">
-        <v>22.921</v>
+        <v>5.783</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C82" t="n">
-        <v>242</v>
+        <v>50</v>
       </c>
       <c r="D82" t="n">
-        <v>404</v>
+        <v>86</v>
       </c>
       <c r="E82" t="n">
         <v>3</v>
       </c>
       <c r="F82" t="n">
-        <v>29.767</v>
+        <v>7.468</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C83" t="n">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="D83" t="n">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="E83" t="n">
         <v>3</v>
       </c>
       <c r="F83" t="n">
-        <v>21.445</v>
+        <v>14.749</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C84" t="n">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="D84" t="n">
-        <v>432</v>
+        <v>66</v>
       </c>
       <c r="E84" t="n">
         <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>35.191</v>
+        <v>4.023</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C85" t="n">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="D85" t="n">
-        <v>286</v>
+        <v>402</v>
       </c>
       <c r="E85" t="n">
         <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>15.253</v>
+        <v>32.627</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C86" t="n">
-        <v>166</v>
+        <v>216</v>
       </c>
       <c r="D86" t="n">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="E86" t="n">
         <v>3</v>
       </c>
       <c r="F86" t="n">
-        <v>14.816</v>
+        <v>26.262</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C87" t="n">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="D87" t="n">
-        <v>60</v>
+        <v>392</v>
       </c>
       <c r="E87" t="n">
         <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>3.78</v>
+        <v>28.018</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C88" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D88" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E88" t="n">
         <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>7.468</v>
+        <v>4.997</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C89" t="n">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D89" t="n">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="E89" t="n">
         <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>23.875</v>
+        <v>22.061</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C90" t="n">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D90" t="n">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="E90" t="n">
         <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>21.645</v>
+        <v>27.327</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C91" t="n">
-        <v>250</v>
+        <v>586</v>
       </c>
       <c r="D91" t="n">
-        <v>416</v>
+        <v>1022</v>
       </c>
       <c r="E91" t="n">
         <v>3</v>
       </c>
       <c r="F91" t="n">
-        <v>31.254</v>
+        <v>121.747</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C92" t="n">
-        <v>256</v>
+        <v>959</v>
       </c>
       <c r="D92" t="n">
-        <v>426</v>
+        <v>1280</v>
       </c>
       <c r="E92" t="n">
         <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>34.625</v>
+        <v>108.547</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C93" t="n">
-        <v>38</v>
+        <v>218</v>
       </c>
       <c r="D93" t="n">
-        <v>64</v>
+        <v>364</v>
       </c>
       <c r="E93" t="n">
         <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>4.556</v>
+        <v>27.358</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C94" t="n">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="D94" t="n">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="E94" t="n">
         <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>27.358</v>
+        <v>17.979</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C95" t="n">
-        <v>198</v>
+        <v>841</v>
       </c>
       <c r="D95" t="n">
-        <v>332</v>
+        <v>1280</v>
       </c>
       <c r="E95" t="n">
         <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>18.523</v>
+        <v>115.487</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C96" t="n">
-        <v>248</v>
+        <v>204</v>
       </c>
       <c r="D96" t="n">
-        <v>414</v>
+        <v>340</v>
       </c>
       <c r="E96" t="n">
         <v>3</v>
       </c>
       <c r="F96" t="n">
-        <v>35.113</v>
+        <v>24.823</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C97" t="n">
-        <v>30</v>
+        <v>256</v>
       </c>
       <c r="D97" t="n">
-        <v>50</v>
+        <v>428</v>
       </c>
       <c r="E97" t="n">
         <v>3</v>
       </c>
       <c r="F97" t="n">
-        <v>2.696</v>
+        <v>31.757</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C98" t="n">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="D98" t="n">
-        <v>384</v>
+        <v>46</v>
       </c>
       <c r="E98" t="n">
         <v>3</v>
       </c>
       <c r="F98" t="n">
-        <v>27.785</v>
+        <v>2.612</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C99" t="n">
-        <v>762</v>
+        <v>216</v>
       </c>
       <c r="D99" t="n">
-        <v>918</v>
+        <v>360</v>
       </c>
       <c r="E99" t="n">
         <v>3</v>
       </c>
       <c r="F99" t="n">
-        <v>103.721</v>
+        <v>22.824</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B100" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C100" t="n">
-        <v>960</v>
+        <v>705</v>
       </c>
       <c r="D100" t="n">
-        <v>1280</v>
+        <v>1021</v>
       </c>
       <c r="E100" t="n">
         <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>104.775</v>
+        <v>140.404</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B101" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C101" t="n">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="D101" t="n">
-        <v>454</v>
+        <v>326</v>
       </c>
       <c r="E101" t="n">
         <v>3</v>
       </c>
       <c r="F101" t="n">
-        <v>35.367</v>
+        <v>21.378</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C102" t="n">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="D102" t="n">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="E102" t="n">
         <v>3</v>
       </c>
       <c r="F102" t="n">
-        <v>17.956</v>
+        <v>15.013</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B103" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C103" t="n">
-        <v>705</v>
+        <v>272</v>
       </c>
       <c r="D103" t="n">
-        <v>1021</v>
+        <v>454</v>
       </c>
       <c r="E103" t="n">
         <v>3</v>
       </c>
       <c r="F103" t="n">
-        <v>140.404</v>
+        <v>35.367</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C104" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D104" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>4.294</v>
+        <v>5.826</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B105" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C105" t="n">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="D105" t="n">
-        <v>408</v>
+        <v>272</v>
       </c>
       <c r="E105" t="n">
         <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>31.448</v>
+        <v>12.589</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C106" t="n">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D106" t="n">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="E106" t="n">
         <v>3</v>
       </c>
       <c r="F106" t="n">
-        <v>25.753</v>
+        <v>21.645</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C107" t="n">
-        <v>669</v>
+        <v>222</v>
       </c>
       <c r="D107" t="n">
-        <v>1022</v>
+        <v>370</v>
       </c>
       <c r="E107" t="n">
         <v>3</v>
       </c>
       <c r="F107" t="n">
-        <v>147.191</v>
+        <v>24.777</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C108" t="n">
-        <v>182</v>
+        <v>256</v>
       </c>
       <c r="D108" t="n">
-        <v>302</v>
+        <v>428</v>
       </c>
       <c r="E108" t="n">
         <v>3</v>
       </c>
       <c r="F108" t="n">
-        <v>17.431</v>
+        <v>31.208</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C109" t="n">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="D109" t="n">
-        <v>362</v>
+        <v>422</v>
       </c>
       <c r="E109" t="n">
         <v>3</v>
       </c>
       <c r="F109" t="n">
-        <v>27.548</v>
+        <v>41.515</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C110" t="n">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="D110" t="n">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="E110" t="n">
         <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>23.514</v>
+        <v>17.224</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C111" t="n">
-        <v>841</v>
+        <v>270</v>
       </c>
       <c r="D111" t="n">
-        <v>1280</v>
+        <v>450</v>
       </c>
       <c r="E111" t="n">
         <v>3</v>
       </c>
       <c r="F111" t="n">
-        <v>115.487</v>
+        <v>41.825</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B112" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C112" t="n">
-        <v>1157</v>
+        <v>685</v>
       </c>
       <c r="D112" t="n">
-        <v>1043</v>
+        <v>1022</v>
       </c>
       <c r="E112" t="n">
         <v>3</v>
       </c>
       <c r="F112" t="n">
-        <v>350.679</v>
+        <v>135.339</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C113" t="n">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D113" t="n">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="E113" t="n">
         <v>3</v>
       </c>
       <c r="F113" t="n">
-        <v>27.327</v>
+        <v>25.168</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B114" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C114" t="n">
-        <v>242</v>
+        <v>682</v>
       </c>
       <c r="D114" t="n">
-        <v>402</v>
+        <v>788</v>
       </c>
       <c r="E114" t="n">
         <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>32.627</v>
+        <v>55.823</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B115" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C115" t="n">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="D115" t="n">
-        <v>284</v>
+        <v>376</v>
       </c>
       <c r="E115" t="n">
         <v>3</v>
       </c>
       <c r="F115" t="n">
-        <v>15.222</v>
+        <v>24.139</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C116" t="n">
-        <v>46</v>
+        <v>685</v>
       </c>
       <c r="D116" t="n">
-        <v>78</v>
+        <v>1022</v>
       </c>
       <c r="E116" t="n">
         <v>3</v>
       </c>
       <c r="F116" t="n">
-        <v>6.106</v>
+        <v>135.339</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C117" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D117" t="n">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E117" t="n">
         <v>3</v>
       </c>
       <c r="F117" t="n">
-        <v>30.699</v>
+        <v>22.658</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B118" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C118" t="n">
-        <v>202</v>
+        <v>46</v>
       </c>
       <c r="D118" t="n">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="E118" t="n">
         <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>24.439</v>
+        <v>6.355</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C119" t="n">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="D119" t="n">
-        <v>336</v>
+        <v>68</v>
       </c>
       <c r="E119" t="n">
         <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>22.061</v>
+        <v>4.248</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C120" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D120" t="n">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="E120" t="n">
         <v>3</v>
       </c>
       <c r="F120" t="n">
-        <v>20.538</v>
+        <v>17.956</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C121" t="n">
-        <v>954</v>
+        <v>30</v>
       </c>
       <c r="D121" t="n">
-        <v>1280</v>
+        <v>50</v>
       </c>
       <c r="E121" t="n">
         <v>3</v>
       </c>
       <c r="F121" t="n">
-        <v>175.898</v>
+        <v>2.696</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B122" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C122" t="n">
-        <v>762</v>
+        <v>192</v>
       </c>
       <c r="D122" t="n">
-        <v>870</v>
+        <v>322</v>
       </c>
       <c r="E122" t="n">
         <v>3</v>
       </c>
       <c r="F122" t="n">
-        <v>92.39</v>
+        <v>21.435</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C123" t="n">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D123" t="n">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="E123" t="n">
         <v>3</v>
       </c>
       <c r="F123" t="n">
-        <v>31.757</v>
+        <v>30.699</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B124" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C124" t="n">
-        <v>224</v>
+        <v>954</v>
       </c>
       <c r="D124" t="n">
-        <v>376</v>
+        <v>1280</v>
       </c>
       <c r="E124" t="n">
         <v>3</v>
       </c>
       <c r="F124" t="n">
-        <v>24.139</v>
+        <v>175.898</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B125" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C125" t="n">
-        <v>841</v>
+        <v>236</v>
       </c>
       <c r="D125" t="n">
-        <v>1280</v>
+        <v>394</v>
       </c>
       <c r="E125" t="n">
         <v>3</v>
       </c>
       <c r="F125" t="n">
-        <v>115.487</v>
+        <v>30.164</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C126" t="n">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="D126" t="n">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="E126" t="n">
         <v>3</v>
       </c>
       <c r="F126" t="n">
-        <v>33.529</v>
+        <v>23.338</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C127" t="n">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="D127" t="n">
-        <v>340</v>
+        <v>402</v>
       </c>
       <c r="E127" t="n">
         <v>3</v>
       </c>
       <c r="F127" t="n">
-        <v>24.823</v>
+        <v>24.922</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B128" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C128" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D128" t="n">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="E128" t="n">
         <v>3</v>
       </c>
       <c r="F128" t="n">
-        <v>30.164</v>
+        <v>29.767</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B129" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C129" t="n">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D129" t="n">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="E129" t="n">
         <v>3</v>
       </c>
       <c r="F129" t="n">
-        <v>37.493</v>
+        <v>27.598</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B130" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C130" t="n">
-        <v>682</v>
+        <v>244</v>
       </c>
       <c r="D130" t="n">
-        <v>788</v>
+        <v>408</v>
       </c>
       <c r="E130" t="n">
         <v>3</v>
       </c>
       <c r="F130" t="n">
-        <v>55.823</v>
+        <v>31.448</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C131" t="n">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="D131" t="n">
-        <v>376</v>
+        <v>64</v>
       </c>
       <c r="E131" t="n">
         <v>3</v>
       </c>
       <c r="F131" t="n">
-        <v>23.696</v>
+        <v>4.338</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B132" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C132" t="n">
-        <v>282</v>
+        <v>196</v>
       </c>
       <c r="D132" t="n">
-        <v>470</v>
+        <v>328</v>
       </c>
       <c r="E132" t="n">
         <v>3</v>
       </c>
       <c r="F132" t="n">
-        <v>37.148</v>
+        <v>22.179</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B133" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C133" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D133" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E133" t="n">
         <v>3</v>
       </c>
       <c r="F133" t="n">
-        <v>5.826</v>
+        <v>4.199</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B134" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C134" t="n">
-        <v>628</v>
+        <v>264</v>
       </c>
       <c r="D134" t="n">
-        <v>1021</v>
+        <v>442</v>
       </c>
       <c r="E134" t="n">
         <v>3</v>
       </c>
       <c r="F134" t="n">
-        <v>97.133</v>
+        <v>30.537</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B135" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C135" t="n">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="D135" t="n">
-        <v>398</v>
+        <v>478</v>
       </c>
       <c r="E135" t="n">
         <v>3</v>
       </c>
       <c r="F135" t="n">
-        <v>27.598</v>
+        <v>38.713</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B136" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C136" t="n">
-        <v>508</v>
+        <v>762</v>
       </c>
       <c r="D136" t="n">
-        <v>680</v>
+        <v>870</v>
       </c>
       <c r="E136" t="n">
         <v>3</v>
       </c>
       <c r="F136" t="n">
-        <v>46.667</v>
+        <v>92.39</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B137" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C137" t="n">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D137" t="n">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="E137" t="n">
         <v>3</v>
       </c>
       <c r="F137" t="n">
-        <v>22.658</v>
+        <v>24.298</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B138" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C138" t="n">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="D138" t="n">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="E138" t="n">
         <v>3</v>
       </c>
       <c r="F138" t="n">
-        <v>8.976000000000001</v>
+        <v>4.294</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B139" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C139" t="n">
-        <v>50</v>
+        <v>852</v>
       </c>
       <c r="D139" t="n">
-        <v>84</v>
+        <v>1280</v>
       </c>
       <c r="E139" t="n">
         <v>3</v>
       </c>
       <c r="F139" t="n">
-        <v>6.449</v>
+        <v>134.641</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B140" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C140" t="n">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D140" t="n">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E140" t="n">
         <v>3</v>
       </c>
       <c r="F140" t="n">
-        <v>19.034</v>
+        <v>18.289</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B141" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C141" t="n">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="D141" t="n">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="E141" t="n">
         <v>3</v>
       </c>
       <c r="F141" t="n">
-        <v>22.567</v>
+        <v>37.377</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B142" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C142" t="n">
-        <v>960</v>
+        <v>703</v>
       </c>
       <c r="D142" t="n">
-        <v>1280</v>
+        <v>1022</v>
       </c>
       <c r="E142" t="n">
         <v>3</v>
       </c>
       <c r="F142" t="n">
-        <v>94.879</v>
+        <v>175.409</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B143" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C143" t="n">
-        <v>168</v>
+        <v>264</v>
       </c>
       <c r="D143" t="n">
-        <v>280</v>
+        <v>440</v>
       </c>
       <c r="E143" t="n">
         <v>3</v>
       </c>
       <c r="F143" t="n">
-        <v>16.269</v>
+        <v>33.529</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B144" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C144" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D144" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E144" t="n">
         <v>3</v>
       </c>
       <c r="F144" t="n">
-        <v>6.355</v>
+        <v>3.674</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B145" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C145" t="n">
-        <v>234</v>
+        <v>960</v>
       </c>
       <c r="D145" t="n">
-        <v>390</v>
+        <v>1280</v>
       </c>
       <c r="E145" t="n">
         <v>3</v>
       </c>
       <c r="F145" t="n">
-        <v>28.621</v>
+        <v>94.879</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B146" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C146" t="n">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="D146" t="n">
-        <v>380</v>
+        <v>66</v>
       </c>
       <c r="E146" t="n">
         <v>3</v>
       </c>
       <c r="F146" t="n">
-        <v>27.807</v>
+        <v>4.901</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B147" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C147" t="n">
-        <v>42</v>
+        <v>202</v>
       </c>
       <c r="D147" t="n">
-        <v>72</v>
+        <v>338</v>
       </c>
       <c r="E147" t="n">
         <v>3</v>
       </c>
       <c r="F147" t="n">
-        <v>4.343</v>
+        <v>24.439</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B148" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C148" t="n">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D148" t="n">
-        <v>1022</v>
+        <v>788</v>
       </c>
       <c r="E148" t="n">
         <v>3</v>
       </c>
       <c r="F148" t="n">
-        <v>135.339</v>
+        <v>55.806</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B149" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C149" t="n">
-        <v>631</v>
+        <v>190</v>
       </c>
       <c r="D149" t="n">
-        <v>1077</v>
+        <v>318</v>
       </c>
       <c r="E149" t="n">
         <v>3</v>
       </c>
       <c r="F149" t="n">
-        <v>78.62</v>
+        <v>21.492</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B150" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C150" t="n">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="D150" t="n">
-        <v>316</v>
+        <v>470</v>
       </c>
       <c r="E150" t="n">
         <v>3</v>
       </c>
       <c r="F150" t="n">
-        <v>19.942</v>
+        <v>43.025</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B151" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C151" t="n">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="D151" t="n">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="E151" t="n">
         <v>3</v>
       </c>
       <c r="F151" t="n">
-        <v>22.179</v>
+        <v>27.807</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B152" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C152" t="n">
-        <v>960</v>
+        <v>254</v>
       </c>
       <c r="D152" t="n">
-        <v>1280</v>
+        <v>424</v>
       </c>
       <c r="E152" t="n">
         <v>3</v>
       </c>
       <c r="F152" t="n">
-        <v>118.554</v>
+        <v>31.976</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B153" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C153" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D153" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E153" t="n">
         <v>3</v>
       </c>
       <c r="F153" t="n">
-        <v>4.036</v>
+        <v>4.343</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B154" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C154" t="n">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="D154" t="n">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="E154" t="n">
         <v>3</v>
       </c>
       <c r="F154" t="n">
-        <v>12.481</v>
+        <v>8.752000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B155" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C155" t="n">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="D155" t="n">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="E155" t="n">
         <v>3</v>
       </c>
       <c r="F155" t="n">
-        <v>34.446</v>
+        <v>22.357</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B156" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C156" t="n">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="D156" t="n">
-        <v>448</v>
+        <v>64</v>
       </c>
       <c r="E156" t="n">
         <v>3</v>
       </c>
       <c r="F156" t="n">
-        <v>35.783</v>
+        <v>4.556</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B157" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C157" t="n">
-        <v>724</v>
+        <v>218</v>
       </c>
       <c r="D157" t="n">
-        <v>1022</v>
+        <v>364</v>
       </c>
       <c r="E157" t="n">
         <v>3</v>
       </c>
       <c r="F157" t="n">
-        <v>136.086</v>
+        <v>22.222</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B158" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C158" t="n">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="D158" t="n">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="E158" t="n">
         <v>3</v>
       </c>
       <c r="F158" t="n">
-        <v>37.377</v>
+        <v>27.468</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B159" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C159" t="n">
-        <v>248</v>
+        <v>628</v>
       </c>
       <c r="D159" t="n">
-        <v>414</v>
+        <v>1021</v>
       </c>
       <c r="E159" t="n">
         <v>3</v>
       </c>
       <c r="F159" t="n">
-        <v>32.422</v>
+        <v>97.133</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C160" t="n">
-        <v>284</v>
+        <v>762</v>
       </c>
       <c r="D160" t="n">
-        <v>474</v>
+        <v>870</v>
       </c>
       <c r="E160" t="n">
         <v>3</v>
       </c>
       <c r="F160" t="n">
-        <v>41.38</v>
+        <v>92.39</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B161" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C161" t="n">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="D161" t="n">
-        <v>424</v>
+        <v>54</v>
       </c>
       <c r="E161" t="n">
         <v>3</v>
       </c>
       <c r="F161" t="n">
-        <v>31.802</v>
+        <v>3.105</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B162" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C162" t="n">
-        <v>748</v>
+        <v>246</v>
       </c>
       <c r="D162" t="n">
-        <v>1022</v>
+        <v>412</v>
       </c>
       <c r="E162" t="n">
         <v>3</v>
       </c>
       <c r="F162" t="n">
-        <v>139.794</v>
+        <v>32.666</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B163" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C163" t="n">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="D163" t="n">
-        <v>62</v>
+        <v>348</v>
       </c>
       <c r="E163" t="n">
         <v>3</v>
       </c>
       <c r="F163" t="n">
-        <v>3.674</v>
+        <v>26.002</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B164" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C164" t="n">
-        <v>220</v>
+        <v>762</v>
       </c>
       <c r="D164" t="n">
-        <v>368</v>
+        <v>750</v>
       </c>
       <c r="E164" t="n">
         <v>3</v>
       </c>
       <c r="F164" t="n">
-        <v>23.318</v>
+        <v>72.911</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B165" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C165" t="n">
-        <v>34</v>
+        <v>577</v>
       </c>
       <c r="D165" t="n">
-        <v>58</v>
+        <v>1022</v>
       </c>
       <c r="E165" t="n">
         <v>3</v>
       </c>
       <c r="F165" t="n">
-        <v>3.403</v>
+        <v>122.394</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B166" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C166" t="n">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="D166" t="n">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="E166" t="n">
         <v>3</v>
       </c>
       <c r="F166" t="n">
-        <v>4.199</v>
+        <v>21.539</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B167" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C167" t="n">
-        <v>128</v>
+        <v>252</v>
       </c>
       <c r="D167" t="n">
-        <v>214</v>
+        <v>422</v>
       </c>
       <c r="E167" t="n">
         <v>3</v>
       </c>
       <c r="F167" t="n">
-        <v>8.593</v>
+        <v>30.511</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B168" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C168" t="n">
-        <v>242</v>
+        <v>142</v>
       </c>
       <c r="D168" t="n">
-        <v>406</v>
+        <v>236</v>
       </c>
       <c r="E168" t="n">
         <v>3</v>
       </c>
       <c r="F168" t="n">
-        <v>31.63</v>
+        <v>13.094</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B169" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C169" t="n">
-        <v>208</v>
+        <v>50</v>
       </c>
       <c r="D169" t="n">
-        <v>348</v>
+        <v>84</v>
       </c>
       <c r="E169" t="n">
         <v>3</v>
       </c>
       <c r="F169" t="n">
-        <v>26.002</v>
+        <v>6.449</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C170" t="n">
-        <v>254</v>
+        <v>46</v>
       </c>
       <c r="D170" t="n">
-        <v>422</v>
+        <v>78</v>
       </c>
       <c r="E170" t="n">
         <v>3</v>
       </c>
       <c r="F170" t="n">
-        <v>41.515</v>
+        <v>6.106</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B171" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C171" t="n">
-        <v>855</v>
+        <v>194</v>
       </c>
       <c r="D171" t="n">
-        <v>1230</v>
+        <v>324</v>
       </c>
       <c r="E171" t="n">
         <v>3</v>
       </c>
       <c r="F171" t="n">
-        <v>137.824</v>
+        <v>19.034</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B172" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C172" t="n">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D172" t="n">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="E172" t="n">
         <v>3</v>
       </c>
       <c r="F172" t="n">
-        <v>21.435</v>
+        <v>21.445</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B173" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C173" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D173" t="n">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="E173" t="n">
         <v>3</v>
       </c>
       <c r="F173" t="n">
-        <v>24.777</v>
+        <v>30.662</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B174" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C174" t="n">
-        <v>44</v>
+        <v>855</v>
       </c>
       <c r="D174" t="n">
-        <v>74</v>
+        <v>1230</v>
       </c>
       <c r="E174" t="n">
         <v>3</v>
       </c>
       <c r="F174" t="n">
-        <v>5.111</v>
+        <v>137.824</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B175" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C175" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D175" t="n">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E175" t="n">
         <v>3</v>
       </c>
       <c r="F175" t="n">
-        <v>5.187</v>
+        <v>4.036</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B176" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C176" t="n">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="D176" t="n">
-        <v>302</v>
+        <v>426</v>
       </c>
       <c r="E176" t="n">
         <v>3</v>
       </c>
       <c r="F176" t="n">
-        <v>14.749</v>
+        <v>34.625</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B177" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C177" t="n">
-        <v>28</v>
+        <v>855</v>
       </c>
       <c r="D177" t="n">
-        <v>46</v>
+        <v>1230</v>
       </c>
       <c r="E177" t="n">
         <v>3</v>
       </c>
       <c r="F177" t="n">
-        <v>2.612</v>
+        <v>137.824</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B178" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C178" t="n">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="D178" t="n">
-        <v>342</v>
+        <v>406</v>
       </c>
       <c r="E178" t="n">
         <v>3</v>
       </c>
       <c r="F178" t="n">
-        <v>22.587</v>
+        <v>31.63</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B179" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C179" t="n">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="D179" t="n">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="E179" t="n">
         <v>3</v>
       </c>
       <c r="F179" t="n">
-        <v>17.979</v>
+        <v>16.269</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B180" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C180" t="n">
-        <v>202</v>
+        <v>717</v>
       </c>
       <c r="D180" t="n">
-        <v>338</v>
+        <v>1022</v>
       </c>
       <c r="E180" t="n">
         <v>3</v>
       </c>
       <c r="F180" t="n">
-        <v>25.168</v>
+        <v>136.974</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B181" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C181" t="n">
+        <v>182</v>
+      </c>
+      <c r="D181" t="n">
+        <v>302</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3</v>
+      </c>
+      <c r="F181" t="n">
+        <v>17.431</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>40</v>
+      </c>
+      <c r="B182" t="s">
+        <v>188</v>
+      </c>
+      <c r="C182" t="n">
+        <v>248</v>
+      </c>
+      <c r="D182" t="n">
+        <v>414</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3</v>
+      </c>
+      <c r="F182" t="n">
+        <v>35.113</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>40</v>
+      </c>
+      <c r="B183" t="s">
+        <v>189</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1280</v>
+      </c>
+      <c r="D183" t="n">
+        <v>960</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3</v>
+      </c>
+      <c r="F183" t="n">
+        <v>124.783</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>40</v>
+      </c>
+      <c r="B184" t="s">
+        <v>190</v>
+      </c>
+      <c r="C184" t="n">
+        <v>198</v>
+      </c>
+      <c r="D184" t="n">
+        <v>332</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3</v>
+      </c>
+      <c r="F184" t="n">
+        <v>18.523</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>40</v>
+      </c>
+      <c r="B185" t="s">
+        <v>191</v>
+      </c>
+      <c r="C185" t="n">
+        <v>238</v>
+      </c>
+      <c r="D185" t="n">
+        <v>396</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3</v>
+      </c>
+      <c r="F185" t="n">
+        <v>29.205</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>40</v>
+      </c>
+      <c r="B186" t="s">
+        <v>192</v>
+      </c>
+      <c r="C186" t="n">
+        <v>170</v>
+      </c>
+      <c r="D186" t="n">
+        <v>284</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3</v>
+      </c>
+      <c r="F186" t="n">
+        <v>14.089</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>40</v>
+      </c>
+      <c r="B187" t="s">
+        <v>193</v>
+      </c>
+      <c r="C187" t="n">
+        <v>210</v>
+      </c>
+      <c r="D187" t="n">
+        <v>350</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3</v>
+      </c>
+      <c r="F187" t="n">
+        <v>23.514</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>40</v>
+      </c>
+      <c r="B188" t="s">
+        <v>194</v>
+      </c>
+      <c r="C188" t="n">
+        <v>226</v>
+      </c>
+      <c r="D188" t="n">
+        <v>376</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3</v>
+      </c>
+      <c r="F188" t="n">
+        <v>25.952</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>40</v>
+      </c>
+      <c r="B189" t="s">
+        <v>195</v>
+      </c>
+      <c r="C189" t="n">
+        <v>184</v>
+      </c>
+      <c r="D189" t="n">
+        <v>308</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3</v>
+      </c>
+      <c r="F189" t="n">
+        <v>20.538</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>40</v>
+      </c>
+      <c r="B190" t="s">
+        <v>196</v>
+      </c>
+      <c r="C190" t="n">
+        <v>508</v>
+      </c>
+      <c r="D190" t="n">
+        <v>680</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3</v>
+      </c>
+      <c r="F190" t="n">
+        <v>46.667</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>40</v>
+      </c>
+      <c r="B191" t="s">
+        <v>197</v>
+      </c>
+      <c r="C191" t="n">
+        <v>258</v>
+      </c>
+      <c r="D191" t="n">
+        <v>430</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>34.446</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>40</v>
+      </c>
+      <c r="B192" t="s">
+        <v>198</v>
+      </c>
+      <c r="C192" t="n">
+        <v>162</v>
+      </c>
+      <c r="D192" t="n">
+        <v>270</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3</v>
+      </c>
+      <c r="F192" t="n">
+        <v>13.818</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>40</v>
+      </c>
+      <c r="B193" t="s">
+        <v>199</v>
+      </c>
+      <c r="C193" t="n">
+        <v>204</v>
+      </c>
+      <c r="D193" t="n">
+        <v>340</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20.958</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>40</v>
+      </c>
+      <c r="B194" t="s">
+        <v>200</v>
+      </c>
+      <c r="C194" t="n">
+        <v>656</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3</v>
+      </c>
+      <c r="F194" t="n">
+        <v>107.395</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>40</v>
+      </c>
+      <c r="B195" t="s">
+        <v>201</v>
+      </c>
+      <c r="C195" t="n">
+        <v>224</v>
+      </c>
+      <c r="D195" t="n">
+        <v>376</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3</v>
+      </c>
+      <c r="F195" t="n">
+        <v>22.921</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>40</v>
+      </c>
+      <c r="B196" t="s">
+        <v>202</v>
+      </c>
+      <c r="C196" t="n">
+        <v>234</v>
+      </c>
+      <c r="D196" t="n">
+        <v>390</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3</v>
+      </c>
+      <c r="F196" t="n">
+        <v>28.621</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>40</v>
+      </c>
+      <c r="B197" t="s">
+        <v>203</v>
+      </c>
+      <c r="C197" t="n">
+        <v>282</v>
+      </c>
+      <c r="D197" t="n">
+        <v>470</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3</v>
+      </c>
+      <c r="F197" t="n">
+        <v>37.148</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>40</v>
+      </c>
+      <c r="B198" t="s">
+        <v>204</v>
+      </c>
+      <c r="C198" t="n">
+        <v>631</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1077</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3</v>
+      </c>
+      <c r="F198" t="n">
+        <v>78.62</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>40</v>
+      </c>
+      <c r="B199" t="s">
+        <v>205</v>
+      </c>
+      <c r="C199" t="n">
+        <v>236</v>
+      </c>
+      <c r="D199" t="n">
+        <v>394</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3</v>
+      </c>
+      <c r="F199" t="n">
+        <v>29.536</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>40</v>
+      </c>
+      <c r="B200" t="s">
+        <v>206</v>
+      </c>
+      <c r="C200" t="n">
+        <v>44</v>
+      </c>
+      <c r="D200" t="n">
+        <v>74</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3</v>
+      </c>
+      <c r="F200" t="n">
+        <v>5.111</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>40</v>
+      </c>
+      <c r="B201" t="s">
+        <v>207</v>
+      </c>
+      <c r="C201" t="n">
+        <v>44</v>
+      </c>
+      <c r="D201" t="n">
+        <v>76</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3</v>
+      </c>
+      <c r="F201" t="n">
+        <v>5.187</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>40</v>
+      </c>
+      <c r="B202" t="s">
+        <v>208</v>
+      </c>
+      <c r="C202" t="n">
+        <v>198</v>
+      </c>
+      <c r="D202" t="n">
+        <v>330</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3</v>
+      </c>
+      <c r="F202" t="n">
+        <v>22.567</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>40</v>
+      </c>
+      <c r="B203" t="s">
+        <v>209</v>
+      </c>
+      <c r="C203" t="n">
+        <v>748</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3</v>
+      </c>
+      <c r="F203" t="n">
+        <v>139.794</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>40</v>
+      </c>
+      <c r="B204" t="s">
+        <v>210</v>
+      </c>
+      <c r="C204" t="n">
         <v>584</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D204" t="n">
         <v>1022</v>
       </c>
-      <c r="E181" t="n">
-        <v>3</v>
-      </c>
-      <c r="F181" t="n">
+      <c r="E204" t="n">
+        <v>3</v>
+      </c>
+      <c r="F204" t="n">
         <v>91.958</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>40</v>
+      </c>
+      <c r="B205" t="s">
+        <v>211</v>
+      </c>
+      <c r="C205" t="n">
+        <v>248</v>
+      </c>
+      <c r="D205" t="n">
+        <v>414</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3</v>
+      </c>
+      <c r="F205" t="n">
+        <v>21.978</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>40</v>
+      </c>
+      <c r="B206" t="s">
+        <v>212</v>
+      </c>
+      <c r="C206" t="n">
+        <v>669</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3</v>
+      </c>
+      <c r="F206" t="n">
+        <v>147.191</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>40</v>
+      </c>
+      <c r="B207" t="s">
+        <v>213</v>
+      </c>
+      <c r="C207" t="n">
+        <v>174</v>
+      </c>
+      <c r="D207" t="n">
+        <v>292</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3</v>
+      </c>
+      <c r="F207" t="n">
+        <v>17.571</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>40</v>
+      </c>
+      <c r="B208" t="s">
+        <v>214</v>
+      </c>
+      <c r="C208" t="n">
+        <v>724</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1022</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3</v>
+      </c>
+      <c r="F208" t="n">
+        <v>136.086</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>40</v>
+      </c>
+      <c r="B209" t="s">
+        <v>215</v>
+      </c>
+      <c r="C209" t="n">
+        <v>226</v>
+      </c>
+      <c r="D209" t="n">
+        <v>376</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3</v>
+      </c>
+      <c r="F209" t="n">
+        <v>23.696</v>
       </c>
     </row>
   </sheetData>
